--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31765724349708</v>
+        <v>21.31765724349711</v>
       </c>
       <c r="C2">
-        <v>17.48870581600501</v>
+        <v>17.48870581600512</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.519692127847772</v>
+        <v>9.519692127847803</v>
       </c>
       <c r="F2">
-        <v>30.73672220333841</v>
+        <v>30.7367222033384</v>
       </c>
       <c r="G2">
-        <v>19.78396094618959</v>
+        <v>19.7839609461895</v>
       </c>
       <c r="H2">
-        <v>15.43659629530368</v>
+        <v>15.43659629530354</v>
       </c>
       <c r="I2">
-        <v>7.681026881415754</v>
+        <v>7.681026881415636</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.27216004382472</v>
+        <v>18.27216004382469</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.87067778157109</v>
+        <v>19.87067778157116</v>
       </c>
       <c r="C3">
-        <v>16.28400619526004</v>
+        <v>16.28400619526001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.963335676573877</v>
+        <v>8.963335676573912</v>
       </c>
       <c r="F3">
-        <v>28.77271600958716</v>
+        <v>28.77271600958714</v>
       </c>
       <c r="G3">
-        <v>19.04936104900793</v>
+        <v>19.04936104900778</v>
       </c>
       <c r="H3">
-        <v>15.25975705020781</v>
+        <v>15.2597570502076</v>
       </c>
       <c r="I3">
-        <v>7.904187280924122</v>
+        <v>7.904187280923932</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.08690191532281</v>
+        <v>17.08690191532284</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.93468957255509</v>
+        <v>18.93468957255504</v>
       </c>
       <c r="C4">
-        <v>15.50654100153714</v>
+        <v>15.50654100153715</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.610242894032112</v>
+        <v>8.610242894032137</v>
       </c>
       <c r="F4">
-        <v>27.53098117567728</v>
+        <v>27.53098117567722</v>
       </c>
       <c r="G4">
-        <v>18.61871181411117</v>
+        <v>18.61871181411115</v>
       </c>
       <c r="H4">
         <v>15.17816449544036</v>
       </c>
       <c r="I4">
-        <v>8.045864868254183</v>
+        <v>8.045864868254265</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.32231613287014</v>
+        <v>16.3223161328701</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54117670441053</v>
+        <v>18.54117670441054</v>
       </c>
       <c r="C5">
-        <v>15.18008234188913</v>
+        <v>15.18008234188903</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.46357629172646</v>
+        <v>8.463576291726488</v>
       </c>
       <c r="F5">
-        <v>27.01627211287795</v>
+        <v>27.01627211287793</v>
       </c>
       <c r="G5">
-        <v>18.44838941606841</v>
+        <v>18.44838941606845</v>
       </c>
       <c r="H5">
-        <v>15.151323916826</v>
+        <v>15.15132391682605</v>
       </c>
       <c r="I5">
-        <v>8.104736129107671</v>
+        <v>8.104736129107827</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.00141056006764</v>
+        <v>16.0014105600676</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.47510021603341</v>
+        <v>18.47510021603334</v>
       </c>
       <c r="C6">
-        <v>15.12528841652181</v>
+        <v>15.12528841652186</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.439058455534857</v>
+        <v>8.43905845553483</v>
       </c>
       <c r="F6">
         <v>26.93029176142117</v>
       </c>
       <c r="G6">
-        <v>18.4204209043761</v>
+        <v>18.42042090437612</v>
       </c>
       <c r="H6">
-        <v>15.14724286956128</v>
+        <v>15.1472428695613</v>
       </c>
       <c r="I6">
-        <v>8.114579496853635</v>
+        <v>8.114579496853631</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.94755925589923</v>
+        <v>15.94755925589922</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.92943164498228</v>
+        <v>18.92943164498232</v>
       </c>
       <c r="C7">
-        <v>15.50217745101983</v>
+        <v>15.50217745101982</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.608275977563098</v>
+        <v>8.608275977563085</v>
       </c>
       <c r="F7">
-        <v>27.52407431428668</v>
+        <v>27.52407431428671</v>
       </c>
       <c r="G7">
         <v>18.61639379965562</v>
       </c>
       <c r="H7">
-        <v>15.17777707205953</v>
+        <v>15.17777707205951</v>
       </c>
       <c r="I7">
-        <v>8.046654262560988</v>
+        <v>8.046654262560933</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.31802614453272</v>
+        <v>16.31802614453276</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82851905208268</v>
+        <v>20.82851905208267</v>
       </c>
       <c r="C8">
-        <v>17.08107955766489</v>
+        <v>17.08107955766484</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.330301138273937</v>
+        <v>9.330301138273931</v>
       </c>
       <c r="F8">
-        <v>30.06712170673352</v>
+        <v>30.06712170673354</v>
       </c>
       <c r="G8">
-        <v>19.52646223119595</v>
+        <v>19.52646223119599</v>
       </c>
       <c r="H8">
-        <v>15.36979841268549</v>
+        <v>15.36979841268551</v>
       </c>
       <c r="I8">
-        <v>7.75698189269744</v>
+        <v>7.756981892697508</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.87108009549281</v>
+        <v>17.8710800954928</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.1822496963499</v>
+        <v>24.18224969634994</v>
       </c>
       <c r="C9">
-        <v>19.88439681266804</v>
+        <v>19.88439681266811</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.68131315217834</v>
+        <v>10.68131315217827</v>
       </c>
       <c r="F9">
-        <v>34.95741955943524</v>
+        <v>34.95741955943528</v>
       </c>
       <c r="G9">
-        <v>21.47153599249549</v>
+        <v>21.47153599249555</v>
       </c>
       <c r="H9">
-        <v>15.97654040729042</v>
+        <v>15.97654040729046</v>
       </c>
       <c r="I9">
-        <v>7.228153486036228</v>
+        <v>7.228153486036247</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.62849484565226</v>
+        <v>20.62849484565224</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.4309346210931</v>
+        <v>26.43093462109305</v>
       </c>
       <c r="C10">
-        <v>21.7759865796513</v>
+        <v>21.77598657965115</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.70326913906448</v>
+        <v>11.70326913906451</v>
       </c>
       <c r="F10">
-        <v>38.43608245066667</v>
+        <v>38.43608245066665</v>
       </c>
       <c r="G10">
         <v>22.99827218841189</v>
       </c>
       <c r="H10">
-        <v>16.58345707481812</v>
+        <v>16.58345707481817</v>
       </c>
       <c r="I10">
-        <v>6.8682279762508</v>
+        <v>6.868227976250966</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.48586291312579</v>
+        <v>22.48586291312573</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40979327430042</v>
+        <v>27.40979327430039</v>
       </c>
       <c r="C11">
-        <v>22.60270465634233</v>
+        <v>22.60270465634235</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.14812375897972</v>
+        <v>12.14812375897967</v>
       </c>
       <c r="F11">
         <v>39.96882713438188</v>
       </c>
       <c r="G11">
-        <v>23.71478931294142</v>
+        <v>23.71478931294145</v>
       </c>
       <c r="H11">
-        <v>16.89874508118205</v>
+        <v>16.89874508118207</v>
       </c>
       <c r="I11">
-        <v>6.712353732571939</v>
+        <v>6.71235373257192</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77436723645384</v>
+        <v>27.77436723645373</v>
       </c>
       <c r="C12">
-        <v>22.91115524101043</v>
+        <v>22.91115524101052</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.31379822438396</v>
+        <v>12.31379822438402</v>
       </c>
       <c r="F12">
-        <v>40.54245280017258</v>
+        <v>40.5424528001726</v>
       </c>
       <c r="G12">
-        <v>23.98941113605418</v>
+        <v>23.98941113605419</v>
       </c>
       <c r="H12">
-        <v>17.02410953406442</v>
+        <v>17.0241095340645</v>
       </c>
       <c r="I12">
-        <v>6.654658101244301</v>
+        <v>6.654658101244439</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.59825957326743</v>
+        <v>23.59825957326742</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69611683316075</v>
+        <v>27.69611683316066</v>
       </c>
       <c r="C13">
-        <v>22.84492564465576</v>
+        <v>22.8449256446557</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.2782393318071</v>
+        <v>12.27823933180715</v>
       </c>
       <c r="F13">
-        <v>40.41920782136126</v>
+        <v>40.41920782136116</v>
       </c>
       <c r="G13">
-        <v>23.93011718988869</v>
+        <v>23.93011718988867</v>
       </c>
       <c r="H13">
-        <v>16.99683908012157</v>
+        <v>16.99683908012162</v>
       </c>
       <c r="I13">
-        <v>6.667020855883536</v>
+        <v>6.667020855883668</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.53341400901509</v>
+        <v>23.53341400901503</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.43990774679991</v>
+        <v>27.43990774680001</v>
       </c>
       <c r="C14">
-        <v>22.62817193262382</v>
+        <v>22.62817193262384</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.16180905852802</v>
+        <v>12.161809058528</v>
       </c>
       <c r="F14">
-        <v>40.01615346433876</v>
+        <v>40.01615346433888</v>
       </c>
       <c r="G14">
-        <v>23.73731564767924</v>
+        <v>23.73731564767931</v>
       </c>
       <c r="H14">
-        <v>16.90893727473808</v>
+        <v>16.90893727473809</v>
       </c>
       <c r="I14">
-        <v>6.707579044684333</v>
+        <v>6.707579044684299</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.3211395913435</v>
+        <v>23.32113959134355</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.28218565227825</v>
+        <v>27.2821856522782</v>
       </c>
       <c r="C15">
-        <v>22.49481156171255</v>
+        <v>22.49481156171271</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.09013291062035</v>
+        <v>12.09013291062038</v>
       </c>
       <c r="F15">
         <v>39.768398447531</v>
       </c>
       <c r="G15">
-        <v>23.61965289402077</v>
+        <v>23.61965289402075</v>
       </c>
       <c r="H15">
-        <v>16.85588257893025</v>
+        <v>16.85588257893021</v>
       </c>
       <c r="I15">
-        <v>6.732602372956157</v>
+        <v>6.732602372956173</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.19049770680192</v>
+        <v>23.19049770680194</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36609683230746</v>
+        <v>26.36609683230747</v>
       </c>
       <c r="C16">
-        <v>21.72129943822013</v>
+        <v>21.72129943822015</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.6738018967632</v>
+        <v>11.67380189676319</v>
       </c>
       <c r="F16">
-        <v>38.33494247899762</v>
+        <v>38.33494247899758</v>
       </c>
       <c r="G16">
-        <v>22.95189827383934</v>
+        <v>22.95189827383935</v>
       </c>
       <c r="H16">
-        <v>16.56366962724592</v>
+        <v>16.56366962724593</v>
       </c>
       <c r="I16">
-        <v>6.878588660372975</v>
+        <v>6.878588660373038</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.43222508192642</v>
+        <v>22.43222508192643</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79297882735279</v>
+        <v>25.7929788273527</v>
       </c>
       <c r="C17">
-        <v>21.23829106101201</v>
+        <v>21.23829106101197</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.41333183063459</v>
+        <v>11.41333183063457</v>
       </c>
       <c r="F17">
-        <v>37.44306176383666</v>
+        <v>37.4430617638366</v>
       </c>
       <c r="G17">
-        <v>22.54795775281997</v>
+        <v>22.54795775281998</v>
       </c>
       <c r="H17">
-        <v>16.39468418618103</v>
+        <v>16.39468418618108</v>
       </c>
       <c r="I17">
-        <v>6.970283875825093</v>
+        <v>6.970283875825254</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.95831325441853</v>
+        <v>21.95831325441848</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.45917171263249</v>
+        <v>25.45917171263253</v>
       </c>
       <c r="C18">
-        <v>20.95728189043187</v>
+        <v>20.95728189043191</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>11.26162381273678</v>
       </c>
       <c r="F18">
-        <v>36.92537020827562</v>
+        <v>36.9253702082756</v>
       </c>
       <c r="G18">
-        <v>22.31768090374788</v>
+        <v>22.31768090374781</v>
       </c>
       <c r="H18">
-        <v>16.3011579902193</v>
+        <v>16.30115799021923</v>
       </c>
       <c r="I18">
-        <v>7.023749044989646</v>
+        <v>7.023749044989584</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.68246284186681</v>
+        <v>21.68246284186679</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34542816254415</v>
+        <v>25.34542816254405</v>
       </c>
       <c r="C19">
-        <v>20.86158110918257</v>
+        <v>20.8615811091827</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.20993016275189</v>
+        <v>11.20993016275195</v>
       </c>
       <c r="F19">
-        <v>36.7492708731824</v>
+        <v>36.74927087318235</v>
       </c>
       <c r="G19">
-        <v>22.24006390095179</v>
+        <v>22.24006390095171</v>
       </c>
       <c r="H19">
-        <v>16.27011172628558</v>
+        <v>16.27011172628557</v>
       </c>
       <c r="I19">
-        <v>7.041970689120652</v>
+        <v>7.04197068912058</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.58849793762509</v>
+        <v>21.5884979376251</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.85441760322137</v>
+        <v>25.85441760322141</v>
       </c>
       <c r="C20">
-        <v>21.2900371529352</v>
+        <v>21.29003715293515</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.44125449284738</v>
+        <v>11.44125449284735</v>
       </c>
       <c r="F20">
         <v>37.53848861433762</v>
       </c>
       <c r="G20">
-        <v>22.59074408354542</v>
+        <v>22.59074408354545</v>
       </c>
       <c r="H20">
-        <v>16.41229074943215</v>
+        <v>16.41229074943218</v>
       </c>
       <c r="I20">
-        <v>6.960446513261126</v>
+        <v>6.960446513261084</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.00909902438334</v>
+        <v>22.00909902438335</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.5153260321712</v>
+        <v>27.51532603217112</v>
       </c>
       <c r="C21">
-        <v>22.69196073694325</v>
+        <v>22.69196073694326</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.19608212815385</v>
+        <v>12.19608212815387</v>
       </c>
       <c r="F21">
-        <v>40.13472140282063</v>
+        <v>40.13472140282051</v>
       </c>
       <c r="G21">
-        <v>23.79385541044043</v>
+        <v>23.79385541044036</v>
       </c>
       <c r="H21">
         <v>16.93459140512718</v>
       </c>
       <c r="I21">
-        <v>6.695628107563271</v>
+        <v>6.695628107563284</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.38361808763941</v>
+        <v>23.38361808763938</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.56541028267095</v>
+        <v>28.56541028267092</v>
       </c>
       <c r="C22">
-        <v>23.58146763128642</v>
+        <v>23.58146763128646</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.67324094165893</v>
+        <v>12.6732409416589</v>
       </c>
       <c r="F22">
-        <v>41.79214300085989</v>
+        <v>41.79214300085991</v>
       </c>
       <c r="G22">
-        <v>24.74031333724965</v>
+        <v>24.7403133372497</v>
       </c>
       <c r="H22">
-        <v>17.3109135541754</v>
+        <v>17.31091355417541</v>
       </c>
       <c r="I22">
-        <v>6.530449770058857</v>
+        <v>6.530449770058809</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.25413878194373</v>
+        <v>24.25413878194371</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.00811449634695</v>
+        <v>28.00811449634698</v>
       </c>
       <c r="C23">
-        <v>23.10907726057268</v>
+        <v>23.10907726057274</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.42001616719072</v>
+        <v>12.42001616719073</v>
       </c>
       <c r="F23">
-        <v>40.91101042387476</v>
+        <v>40.91101042387479</v>
       </c>
       <c r="G23">
-        <v>24.19719769837961</v>
+        <v>24.19719769837964</v>
       </c>
       <c r="H23">
-        <v>17.10675145162815</v>
+        <v>17.10675145162818</v>
       </c>
       <c r="I23">
-        <v>6.617803071356587</v>
+        <v>6.617803071356628</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.7920015455512</v>
+        <v>23.79200154555123</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82665458739161</v>
+        <v>25.82665458739158</v>
       </c>
       <c r="C24">
-        <v>21.26665310792468</v>
+        <v>21.26665310792452</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.42863677055333</v>
+        <v>11.42863677055341</v>
       </c>
       <c r="F24">
-        <v>37.49536154041034</v>
+        <v>37.49536154041028</v>
       </c>
       <c r="G24">
-        <v>22.57139430616001</v>
+        <v>22.57139430615996</v>
       </c>
       <c r="H24">
-        <v>16.40431955392782</v>
+        <v>16.40431955392779</v>
       </c>
       <c r="I24">
-        <v>6.964891668204511</v>
+        <v>6.964891668204526</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.98614935742403</v>
+        <v>21.98614935742405</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31360584739013</v>
+        <v>23.3136058473902</v>
       </c>
       <c r="C25">
-        <v>19.15635783926713</v>
+        <v>19.15635783926702</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.30472537122715</v>
+        <v>10.30472537122717</v>
       </c>
       <c r="F25">
-        <v>33.6303078032829</v>
+        <v>33.63030780328285</v>
       </c>
       <c r="G25">
-        <v>20.92828467696035</v>
+        <v>20.92828467696036</v>
       </c>
       <c r="H25">
-        <v>15.78555149787532</v>
+        <v>15.78555149787537</v>
       </c>
       <c r="I25">
-        <v>7.366627560569603</v>
+        <v>7.366627560569627</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.91272231539293</v>
+        <v>19.91272231539297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31765724349711</v>
+        <v>21.31765724349708</v>
       </c>
       <c r="C2">
-        <v>17.48870581600512</v>
+        <v>17.48870581600501</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.519692127847803</v>
+        <v>9.519692127847772</v>
       </c>
       <c r="F2">
-        <v>30.7367222033384</v>
+        <v>30.73672220333841</v>
       </c>
       <c r="G2">
-        <v>19.7839609461895</v>
+        <v>19.78396094618959</v>
       </c>
       <c r="H2">
-        <v>15.43659629530354</v>
+        <v>15.43659629530368</v>
       </c>
       <c r="I2">
-        <v>7.681026881415636</v>
+        <v>7.681026881415754</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.27216004382469</v>
+        <v>18.27216004382472</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.87067778157116</v>
+        <v>19.87067778157109</v>
       </c>
       <c r="C3">
-        <v>16.28400619526001</v>
+        <v>16.28400619526004</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.963335676573912</v>
+        <v>8.963335676573877</v>
       </c>
       <c r="F3">
-        <v>28.77271600958714</v>
+        <v>28.77271600958716</v>
       </c>
       <c r="G3">
-        <v>19.04936104900778</v>
+        <v>19.04936104900793</v>
       </c>
       <c r="H3">
-        <v>15.2597570502076</v>
+        <v>15.25975705020781</v>
       </c>
       <c r="I3">
-        <v>7.904187280923932</v>
+        <v>7.904187280924122</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.08690191532284</v>
+        <v>17.08690191532281</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.93468957255504</v>
+        <v>18.93468957255509</v>
       </c>
       <c r="C4">
-        <v>15.50654100153715</v>
+        <v>15.50654100153714</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.610242894032137</v>
+        <v>8.610242894032112</v>
       </c>
       <c r="F4">
-        <v>27.53098117567722</v>
+        <v>27.53098117567728</v>
       </c>
       <c r="G4">
-        <v>18.61871181411115</v>
+        <v>18.61871181411117</v>
       </c>
       <c r="H4">
         <v>15.17816449544036</v>
       </c>
       <c r="I4">
-        <v>8.045864868254265</v>
+        <v>8.045864868254183</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.3223161328701</v>
+        <v>16.32231613287014</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54117670441054</v>
+        <v>18.54117670441053</v>
       </c>
       <c r="C5">
-        <v>15.18008234188903</v>
+        <v>15.18008234188913</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.463576291726488</v>
+        <v>8.46357629172646</v>
       </c>
       <c r="F5">
-        <v>27.01627211287793</v>
+        <v>27.01627211287795</v>
       </c>
       <c r="G5">
-        <v>18.44838941606845</v>
+        <v>18.44838941606841</v>
       </c>
       <c r="H5">
-        <v>15.15132391682605</v>
+        <v>15.151323916826</v>
       </c>
       <c r="I5">
-        <v>8.104736129107827</v>
+        <v>8.104736129107671</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.0014105600676</v>
+        <v>16.00141056006764</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.47510021603334</v>
+        <v>18.47510021603341</v>
       </c>
       <c r="C6">
-        <v>15.12528841652186</v>
+        <v>15.12528841652181</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.43905845553483</v>
+        <v>8.439058455534857</v>
       </c>
       <c r="F6">
         <v>26.93029176142117</v>
       </c>
       <c r="G6">
-        <v>18.42042090437612</v>
+        <v>18.4204209043761</v>
       </c>
       <c r="H6">
-        <v>15.1472428695613</v>
+        <v>15.14724286956128</v>
       </c>
       <c r="I6">
-        <v>8.114579496853631</v>
+        <v>8.114579496853635</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.94755925589922</v>
+        <v>15.94755925589923</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.92943164498232</v>
+        <v>18.92943164498228</v>
       </c>
       <c r="C7">
-        <v>15.50217745101982</v>
+        <v>15.50217745101983</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.608275977563085</v>
+        <v>8.608275977563098</v>
       </c>
       <c r="F7">
-        <v>27.52407431428671</v>
+        <v>27.52407431428668</v>
       </c>
       <c r="G7">
         <v>18.61639379965562</v>
       </c>
       <c r="H7">
-        <v>15.17777707205951</v>
+        <v>15.17777707205953</v>
       </c>
       <c r="I7">
-        <v>8.046654262560933</v>
+        <v>8.046654262560988</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.31802614453276</v>
+        <v>16.31802614453272</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82851905208267</v>
+        <v>20.82851905208268</v>
       </c>
       <c r="C8">
-        <v>17.08107955766484</v>
+        <v>17.08107955766489</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.330301138273931</v>
+        <v>9.330301138273937</v>
       </c>
       <c r="F8">
-        <v>30.06712170673354</v>
+        <v>30.06712170673352</v>
       </c>
       <c r="G8">
-        <v>19.52646223119599</v>
+        <v>19.52646223119595</v>
       </c>
       <c r="H8">
-        <v>15.36979841268551</v>
+        <v>15.36979841268549</v>
       </c>
       <c r="I8">
-        <v>7.756981892697508</v>
+        <v>7.75698189269744</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.8710800954928</v>
+        <v>17.87108009549281</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.18224969634994</v>
+        <v>24.1822496963499</v>
       </c>
       <c r="C9">
-        <v>19.88439681266811</v>
+        <v>19.88439681266804</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.68131315217827</v>
+        <v>10.68131315217834</v>
       </c>
       <c r="F9">
-        <v>34.95741955943528</v>
+        <v>34.95741955943524</v>
       </c>
       <c r="G9">
-        <v>21.47153599249555</v>
+        <v>21.47153599249549</v>
       </c>
       <c r="H9">
-        <v>15.97654040729046</v>
+        <v>15.97654040729042</v>
       </c>
       <c r="I9">
-        <v>7.228153486036247</v>
+        <v>7.228153486036228</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.62849484565224</v>
+        <v>20.62849484565226</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.43093462109305</v>
+        <v>26.4309346210931</v>
       </c>
       <c r="C10">
-        <v>21.77598657965115</v>
+        <v>21.7759865796513</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.70326913906451</v>
+        <v>11.70326913906448</v>
       </c>
       <c r="F10">
-        <v>38.43608245066665</v>
+        <v>38.43608245066667</v>
       </c>
       <c r="G10">
         <v>22.99827218841189</v>
       </c>
       <c r="H10">
-        <v>16.58345707481817</v>
+        <v>16.58345707481812</v>
       </c>
       <c r="I10">
-        <v>6.868227976250966</v>
+        <v>6.8682279762508</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.48586291312573</v>
+        <v>22.48586291312579</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40979327430039</v>
+        <v>27.40979327430042</v>
       </c>
       <c r="C11">
-        <v>22.60270465634235</v>
+        <v>22.60270465634233</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.14812375897967</v>
+        <v>12.14812375897972</v>
       </c>
       <c r="F11">
         <v>39.96882713438188</v>
       </c>
       <c r="G11">
-        <v>23.71478931294145</v>
+        <v>23.71478931294142</v>
       </c>
       <c r="H11">
-        <v>16.89874508118207</v>
+        <v>16.89874508118205</v>
       </c>
       <c r="I11">
-        <v>6.71235373257192</v>
+        <v>6.712353732571939</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77436723645373</v>
+        <v>27.77436723645384</v>
       </c>
       <c r="C12">
-        <v>22.91115524101052</v>
+        <v>22.91115524101043</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.31379822438402</v>
+        <v>12.31379822438396</v>
       </c>
       <c r="F12">
-        <v>40.5424528001726</v>
+        <v>40.54245280017258</v>
       </c>
       <c r="G12">
-        <v>23.98941113605419</v>
+        <v>23.98941113605418</v>
       </c>
       <c r="H12">
-        <v>17.0241095340645</v>
+        <v>17.02410953406442</v>
       </c>
       <c r="I12">
-        <v>6.654658101244439</v>
+        <v>6.654658101244301</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.59825957326742</v>
+        <v>23.59825957326743</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69611683316066</v>
+        <v>27.69611683316075</v>
       </c>
       <c r="C13">
-        <v>22.8449256446557</v>
+        <v>22.84492564465576</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.27823933180715</v>
+        <v>12.2782393318071</v>
       </c>
       <c r="F13">
-        <v>40.41920782136116</v>
+        <v>40.41920782136126</v>
       </c>
       <c r="G13">
-        <v>23.93011718988867</v>
+        <v>23.93011718988869</v>
       </c>
       <c r="H13">
-        <v>16.99683908012162</v>
+        <v>16.99683908012157</v>
       </c>
       <c r="I13">
-        <v>6.667020855883668</v>
+        <v>6.667020855883536</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.53341400901503</v>
+        <v>23.53341400901509</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.43990774680001</v>
+        <v>27.43990774679991</v>
       </c>
       <c r="C14">
-        <v>22.62817193262384</v>
+        <v>22.62817193262382</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.161809058528</v>
+        <v>12.16180905852802</v>
       </c>
       <c r="F14">
-        <v>40.01615346433888</v>
+        <v>40.01615346433876</v>
       </c>
       <c r="G14">
-        <v>23.73731564767931</v>
+        <v>23.73731564767924</v>
       </c>
       <c r="H14">
-        <v>16.90893727473809</v>
+        <v>16.90893727473808</v>
       </c>
       <c r="I14">
-        <v>6.707579044684299</v>
+        <v>6.707579044684333</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.32113959134355</v>
+        <v>23.3211395913435</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.2821856522782</v>
+        <v>27.28218565227825</v>
       </c>
       <c r="C15">
-        <v>22.49481156171271</v>
+        <v>22.49481156171255</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.09013291062038</v>
+        <v>12.09013291062035</v>
       </c>
       <c r="F15">
         <v>39.768398447531</v>
       </c>
       <c r="G15">
-        <v>23.61965289402075</v>
+        <v>23.61965289402077</v>
       </c>
       <c r="H15">
-        <v>16.85588257893021</v>
+        <v>16.85588257893025</v>
       </c>
       <c r="I15">
-        <v>6.732602372956173</v>
+        <v>6.732602372956157</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.19049770680194</v>
+        <v>23.19049770680192</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36609683230747</v>
+        <v>26.36609683230746</v>
       </c>
       <c r="C16">
-        <v>21.72129943822015</v>
+        <v>21.72129943822013</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.67380189676319</v>
+        <v>11.6738018967632</v>
       </c>
       <c r="F16">
-        <v>38.33494247899758</v>
+        <v>38.33494247899762</v>
       </c>
       <c r="G16">
-        <v>22.95189827383935</v>
+        <v>22.95189827383934</v>
       </c>
       <c r="H16">
-        <v>16.56366962724593</v>
+        <v>16.56366962724592</v>
       </c>
       <c r="I16">
-        <v>6.878588660373038</v>
+        <v>6.878588660372975</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.43222508192643</v>
+        <v>22.43222508192642</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7929788273527</v>
+        <v>25.79297882735279</v>
       </c>
       <c r="C17">
-        <v>21.23829106101197</v>
+        <v>21.23829106101201</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.41333183063457</v>
+        <v>11.41333183063459</v>
       </c>
       <c r="F17">
-        <v>37.4430617638366</v>
+        <v>37.44306176383666</v>
       </c>
       <c r="G17">
-        <v>22.54795775281998</v>
+        <v>22.54795775281997</v>
       </c>
       <c r="H17">
-        <v>16.39468418618108</v>
+        <v>16.39468418618103</v>
       </c>
       <c r="I17">
-        <v>6.970283875825254</v>
+        <v>6.970283875825093</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.95831325441848</v>
+        <v>21.95831325441853</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.45917171263253</v>
+        <v>25.45917171263249</v>
       </c>
       <c r="C18">
-        <v>20.95728189043191</v>
+        <v>20.95728189043187</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>11.26162381273678</v>
       </c>
       <c r="F18">
-        <v>36.9253702082756</v>
+        <v>36.92537020827562</v>
       </c>
       <c r="G18">
-        <v>22.31768090374781</v>
+        <v>22.31768090374788</v>
       </c>
       <c r="H18">
-        <v>16.30115799021923</v>
+        <v>16.3011579902193</v>
       </c>
       <c r="I18">
-        <v>7.023749044989584</v>
+        <v>7.023749044989646</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.68246284186679</v>
+        <v>21.68246284186681</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34542816254405</v>
+        <v>25.34542816254415</v>
       </c>
       <c r="C19">
-        <v>20.8615811091827</v>
+        <v>20.86158110918257</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.20993016275195</v>
+        <v>11.20993016275189</v>
       </c>
       <c r="F19">
-        <v>36.74927087318235</v>
+        <v>36.7492708731824</v>
       </c>
       <c r="G19">
-        <v>22.24006390095171</v>
+        <v>22.24006390095179</v>
       </c>
       <c r="H19">
-        <v>16.27011172628557</v>
+        <v>16.27011172628558</v>
       </c>
       <c r="I19">
-        <v>7.04197068912058</v>
+        <v>7.041970689120652</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.5884979376251</v>
+        <v>21.58849793762509</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.85441760322141</v>
+        <v>25.85441760322137</v>
       </c>
       <c r="C20">
-        <v>21.29003715293515</v>
+        <v>21.2900371529352</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.44125449284735</v>
+        <v>11.44125449284738</v>
       </c>
       <c r="F20">
         <v>37.53848861433762</v>
       </c>
       <c r="G20">
-        <v>22.59074408354545</v>
+        <v>22.59074408354542</v>
       </c>
       <c r="H20">
-        <v>16.41229074943218</v>
+        <v>16.41229074943215</v>
       </c>
       <c r="I20">
-        <v>6.960446513261084</v>
+        <v>6.960446513261126</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.00909902438335</v>
+        <v>22.00909902438334</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.51532603217112</v>
+        <v>27.5153260321712</v>
       </c>
       <c r="C21">
-        <v>22.69196073694326</v>
+        <v>22.69196073694325</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.19608212815387</v>
+        <v>12.19608212815385</v>
       </c>
       <c r="F21">
-        <v>40.13472140282051</v>
+        <v>40.13472140282063</v>
       </c>
       <c r="G21">
-        <v>23.79385541044036</v>
+        <v>23.79385541044043</v>
       </c>
       <c r="H21">
         <v>16.93459140512718</v>
       </c>
       <c r="I21">
-        <v>6.695628107563284</v>
+        <v>6.695628107563271</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.38361808763938</v>
+        <v>23.38361808763941</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.56541028267092</v>
+        <v>28.56541028267095</v>
       </c>
       <c r="C22">
-        <v>23.58146763128646</v>
+        <v>23.58146763128642</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.6732409416589</v>
+        <v>12.67324094165893</v>
       </c>
       <c r="F22">
-        <v>41.79214300085991</v>
+        <v>41.79214300085989</v>
       </c>
       <c r="G22">
-        <v>24.7403133372497</v>
+        <v>24.74031333724965</v>
       </c>
       <c r="H22">
-        <v>17.31091355417541</v>
+        <v>17.3109135541754</v>
       </c>
       <c r="I22">
-        <v>6.530449770058809</v>
+        <v>6.530449770058857</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.25413878194371</v>
+        <v>24.25413878194373</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.00811449634698</v>
+        <v>28.00811449634695</v>
       </c>
       <c r="C23">
-        <v>23.10907726057274</v>
+        <v>23.10907726057268</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.42001616719073</v>
+        <v>12.42001616719072</v>
       </c>
       <c r="F23">
-        <v>40.91101042387479</v>
+        <v>40.91101042387476</v>
       </c>
       <c r="G23">
-        <v>24.19719769837964</v>
+        <v>24.19719769837961</v>
       </c>
       <c r="H23">
-        <v>17.10675145162818</v>
+        <v>17.10675145162815</v>
       </c>
       <c r="I23">
-        <v>6.617803071356628</v>
+        <v>6.617803071356587</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.79200154555123</v>
+        <v>23.7920015455512</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82665458739158</v>
+        <v>25.82665458739161</v>
       </c>
       <c r="C24">
-        <v>21.26665310792452</v>
+        <v>21.26665310792468</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.42863677055341</v>
+        <v>11.42863677055333</v>
       </c>
       <c r="F24">
-        <v>37.49536154041028</v>
+        <v>37.49536154041034</v>
       </c>
       <c r="G24">
-        <v>22.57139430615996</v>
+        <v>22.57139430616001</v>
       </c>
       <c r="H24">
-        <v>16.40431955392779</v>
+        <v>16.40431955392782</v>
       </c>
       <c r="I24">
-        <v>6.964891668204526</v>
+        <v>6.964891668204511</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.98614935742405</v>
+        <v>21.98614935742403</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.3136058473902</v>
+        <v>23.31360584739013</v>
       </c>
       <c r="C25">
-        <v>19.15635783926702</v>
+        <v>19.15635783926713</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.30472537122717</v>
+        <v>10.30472537122715</v>
       </c>
       <c r="F25">
-        <v>33.63030780328285</v>
+        <v>33.6303078032829</v>
       </c>
       <c r="G25">
-        <v>20.92828467696036</v>
+        <v>20.92828467696035</v>
       </c>
       <c r="H25">
-        <v>15.78555149787537</v>
+        <v>15.78555149787532</v>
       </c>
       <c r="I25">
-        <v>7.366627560569627</v>
+        <v>7.366627560569603</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.91272231539297</v>
+        <v>19.91272231539293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31765724349708</v>
+        <v>21.31670958840896</v>
       </c>
       <c r="C2">
-        <v>17.48870581600501</v>
+        <v>17.48385105524875</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.519692127847772</v>
+        <v>9.525987341139954</v>
       </c>
       <c r="F2">
-        <v>30.73672220333841</v>
+        <v>30.72785397045806</v>
       </c>
       <c r="G2">
-        <v>19.78396094618959</v>
+        <v>18.61810646847855</v>
       </c>
       <c r="H2">
-        <v>15.43659629530368</v>
+        <v>19.81078069101893</v>
       </c>
       <c r="I2">
-        <v>7.681026881415754</v>
+        <v>15.4217828364693</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.677907997758997</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.27216004382472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.27363557603842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.87067778157109</v>
+        <v>19.86995499895835</v>
       </c>
       <c r="C3">
-        <v>16.28400619526004</v>
+        <v>16.27965492852625</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.963335676573877</v>
+        <v>8.969304799864416</v>
       </c>
       <c r="F3">
-        <v>28.77271600958716</v>
+        <v>28.76439138068546</v>
       </c>
       <c r="G3">
-        <v>19.04936104900793</v>
+        <v>17.60553500329175</v>
       </c>
       <c r="H3">
-        <v>15.25975705020781</v>
+        <v>19.07545302800349</v>
       </c>
       <c r="I3">
-        <v>7.904187280924122</v>
+        <v>15.24618634977694</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.901234357892517</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.08690191532281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.08835886539124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.93468957255509</v>
+        <v>18.93410499785234</v>
       </c>
       <c r="C4">
-        <v>15.50654100153714</v>
+        <v>15.50250848368008</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.610242894032112</v>
+        <v>8.616006788341119</v>
       </c>
       <c r="F4">
-        <v>27.53098117567728</v>
+        <v>27.52300065064554</v>
       </c>
       <c r="G4">
-        <v>18.61871181411117</v>
+        <v>16.98970788456936</v>
       </c>
       <c r="H4">
-        <v>15.17816449544036</v>
+        <v>18.64442876303504</v>
       </c>
       <c r="I4">
-        <v>8.045864868254183</v>
+        <v>15.16536554895279</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.042999672003043</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.32231613287014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.32375589973337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54117670441053</v>
+        <v>18.54064872559945</v>
       </c>
       <c r="C5">
-        <v>15.18008234188913</v>
+        <v>15.17618244179497</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.46357629172646</v>
+        <v>8.469255370942113</v>
       </c>
       <c r="F5">
-        <v>27.01627211287795</v>
+        <v>27.00843459703361</v>
       </c>
       <c r="G5">
-        <v>18.44838941606841</v>
+        <v>16.74048979712531</v>
       </c>
       <c r="H5">
-        <v>15.151323916826</v>
+        <v>18.47397153123947</v>
       </c>
       <c r="I5">
-        <v>8.104736129107671</v>
+        <v>15.13884087628692</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.101903639982838</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.00141056006764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.00284198853629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.47510021603341</v>
+        <v>18.47458165858111</v>
       </c>
       <c r="C6">
-        <v>15.12528841652181</v>
+        <v>15.12141071124052</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.439058455534857</v>
+        <v>8.444723382408077</v>
       </c>
       <c r="F6">
-        <v>26.93029176142117</v>
+        <v>26.92247816529744</v>
       </c>
       <c r="G6">
-        <v>18.4204209043761</v>
+        <v>16.69922066237776</v>
       </c>
       <c r="H6">
-        <v>15.14724286956128</v>
+        <v>18.44598171265521</v>
       </c>
       <c r="I6">
-        <v>8.114579496853635</v>
+        <v>15.13481234863581</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.111752268868253</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.94755925589923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.94898922236234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.92943164498228</v>
+        <v>18.92884783211995</v>
       </c>
       <c r="C7">
-        <v>15.50217745101983</v>
+        <v>15.49814671024637</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.608275977563098</v>
+        <v>8.61403873270093</v>
       </c>
       <c r="F7">
-        <v>27.52407431428668</v>
+        <v>27.51609570642484</v>
       </c>
       <c r="G7">
-        <v>18.61639379965562</v>
+        <v>16.98633943609629</v>
       </c>
       <c r="H7">
-        <v>15.17777707205953</v>
+        <v>18.64210885749526</v>
       </c>
       <c r="I7">
-        <v>8.046654262560988</v>
+        <v>15.16498238126299</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.043789519090318</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.31802614453272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.31946580420262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82851905208268</v>
+        <v>20.82764905093551</v>
       </c>
       <c r="C8">
-        <v>17.08107955766489</v>
+        <v>17.07639659581543</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.330301138273937</v>
+        <v>9.336484996246446</v>
       </c>
       <c r="F8">
-        <v>30.06712170673352</v>
+        <v>30.05843888507178</v>
       </c>
       <c r="G8">
-        <v>19.52646223119595</v>
+        <v>18.26788257323319</v>
       </c>
       <c r="H8">
-        <v>15.36979841268549</v>
+        <v>19.55301613677228</v>
       </c>
       <c r="I8">
-        <v>7.75698189269744</v>
+        <v>15.35541117004531</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.753923511987444</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.87108009549281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.87255049068782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.1822496963499</v>
+        <v>24.18080839494386</v>
       </c>
       <c r="C9">
-        <v>19.88439681266804</v>
+        <v>19.87849686029058</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.68131315217834</v>
+        <v>10.68849879674862</v>
       </c>
       <c r="F9">
-        <v>34.95741955943524</v>
+        <v>34.94738193111149</v>
       </c>
       <c r="G9">
-        <v>21.47153599249549</v>
+        <v>20.819901646487</v>
       </c>
       <c r="H9">
-        <v>15.97654040729042</v>
+        <v>21.50030163168574</v>
       </c>
       <c r="I9">
-        <v>7.228153486036228</v>
+        <v>15.95913516985309</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.224574926011271</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.62849484565226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>20.62997405490093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.4309346210931</v>
+        <v>26.42905077963939</v>
       </c>
       <c r="C10">
-        <v>21.7759865796513</v>
+        <v>21.76920947180696</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.70326913906448</v>
+        <v>11.71113225149037</v>
       </c>
       <c r="F10">
-        <v>38.43608245066667</v>
+        <v>38.42510271775019</v>
       </c>
       <c r="G10">
-        <v>22.99827218841189</v>
+        <v>22.72780702895586</v>
       </c>
       <c r="H10">
-        <v>16.58345707481812</v>
+        <v>23.02899817799409</v>
       </c>
       <c r="I10">
-        <v>6.8682279762508</v>
+        <v>16.56394529495245</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.864134500372848</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.48586291312579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.48730839547955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40979327430042</v>
+        <v>27.40769894287669</v>
       </c>
       <c r="C11">
-        <v>22.60270465634233</v>
+        <v>22.59552701000556</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.14812375897972</v>
+        <v>12.15628239999552</v>
       </c>
       <c r="F11">
-        <v>39.96882713438188</v>
+        <v>39.95741915382095</v>
       </c>
       <c r="G11">
-        <v>23.71478931294142</v>
+        <v>23.65409112639712</v>
       </c>
       <c r="H11">
-        <v>16.89874508118205</v>
+        <v>23.74647675006879</v>
       </c>
       <c r="I11">
-        <v>6.712353732571939</v>
+        <v>16.87830719864697</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.707983961780181</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.29619362827743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.2976126904777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77436723645384</v>
+        <v>27.77219146609228</v>
       </c>
       <c r="C12">
-        <v>22.91115524101043</v>
+        <v>22.90382520223422</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.31379822438396</v>
+        <v>12.32206701980294</v>
       </c>
       <c r="F12">
-        <v>40.54245280017258</v>
+        <v>40.53088223167561</v>
       </c>
       <c r="G12">
-        <v>23.98941113605418</v>
+        <v>24.00443887871836</v>
       </c>
       <c r="H12">
-        <v>17.02410953406442</v>
+        <v>24.02147237774463</v>
       </c>
       <c r="I12">
-        <v>6.654658101244301</v>
+        <v>17.0033260434775</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.650176311777911</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.59825957326743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.5996668010439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69611683316075</v>
+        <v>27.69395868635685</v>
       </c>
       <c r="C13">
-        <v>22.84492564465576</v>
+        <v>22.83762846696077</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.2782393318071</v>
+        <v>12.28648448054695</v>
       </c>
       <c r="F13">
-        <v>40.41920782136126</v>
+        <v>40.40767229619953</v>
       </c>
       <c r="G13">
-        <v>23.93011718988869</v>
+        <v>23.92899946886676</v>
       </c>
       <c r="H13">
-        <v>16.99683908012157</v>
+        <v>23.96209749814399</v>
       </c>
       <c r="I13">
-        <v>6.667020855883536</v>
+        <v>16.97612979116735</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.662563544086461</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.53341400901509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.53482387114128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.43990774679991</v>
+        <v>27.43780675262107</v>
       </c>
       <c r="C14">
-        <v>22.62817193262382</v>
+        <v>22.62098176636539</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.16180905852802</v>
+        <v>12.16997679682611</v>
       </c>
       <c r="F14">
-        <v>40.01615346433876</v>
+        <v>40.00473211899202</v>
       </c>
       <c r="G14">
-        <v>23.73731564767924</v>
+        <v>23.68292127920968</v>
       </c>
       <c r="H14">
-        <v>16.90893727473808</v>
+        <v>23.76903364467999</v>
       </c>
       <c r="I14">
-        <v>6.707579044684333</v>
+        <v>16.88847085500507</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.703200214651883</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.3211395913435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.32255771809276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.28218565227825</v>
+        <v>27.28011942702041</v>
       </c>
       <c r="C15">
-        <v>22.49481156171255</v>
+        <v>22.48768683358568</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.09013291062035</v>
+        <v>12.09825300607159</v>
       </c>
       <c r="F15">
-        <v>39.768398447531</v>
+        <v>39.75704697050542</v>
       </c>
       <c r="G15">
-        <v>23.61965289402077</v>
+        <v>23.53214477902786</v>
       </c>
       <c r="H15">
-        <v>16.85588257893025</v>
+        <v>23.65121147572572</v>
       </c>
       <c r="I15">
-        <v>6.732602372956157</v>
+        <v>16.83556559607126</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.728270609107131</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.19049770680192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.19192064986191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36609683230746</v>
+        <v>26.36422652844238</v>
       </c>
       <c r="C16">
-        <v>21.72129943822013</v>
+        <v>21.71454843493456</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.6738018967632</v>
+        <v>11.68164544644487</v>
       </c>
       <c r="F16">
-        <v>38.33494247899762</v>
+        <v>38.32399070177607</v>
       </c>
       <c r="G16">
-        <v>22.95189827383934</v>
+        <v>22.66720070708192</v>
       </c>
       <c r="H16">
-        <v>16.56366962724592</v>
+        <v>22.98256280734763</v>
       </c>
       <c r="I16">
-        <v>6.878588660372975</v>
+        <v>16.54421906190277</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.874512284639636</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.43222508192642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.43367204866215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79297882735279</v>
+        <v>25.79122609069913</v>
       </c>
       <c r="C17">
-        <v>21.23829106101201</v>
+        <v>21.23176860395654</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.41333183063459</v>
+        <v>11.42100253173753</v>
       </c>
       <c r="F17">
-        <v>37.44306176383666</v>
+        <v>37.43235496829463</v>
       </c>
       <c r="G17">
-        <v>22.54795775281997</v>
+        <v>22.16238720266281</v>
       </c>
       <c r="H17">
-        <v>16.39468418618103</v>
+        <v>22.57809145181472</v>
       </c>
       <c r="I17">
-        <v>6.970283875825093</v>
+        <v>16.37577377240946</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.966352510323845</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.95831325441853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.95977196549437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.45917171263249</v>
+        <v>25.45748576166473</v>
       </c>
       <c r="C18">
-        <v>20.95728189043187</v>
+        <v>20.95089077800051</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.26162381273678</v>
+        <v>11.26919390076688</v>
       </c>
       <c r="F18">
-        <v>36.92537020827562</v>
+        <v>36.91480438275544</v>
       </c>
       <c r="G18">
-        <v>22.31768090374788</v>
+        <v>21.87836231138399</v>
       </c>
       <c r="H18">
-        <v>16.3011579902193</v>
+        <v>22.34751585673583</v>
       </c>
       <c r="I18">
-        <v>7.023749044989646</v>
+        <v>16.28256126951959</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.019897219723423</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.68246284186681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.68392728159464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34542816254415</v>
+        <v>25.34376469205845</v>
       </c>
       <c r="C19">
-        <v>20.86158110918257</v>
+        <v>20.85523446312362</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.20993016275189</v>
+        <v>11.21746597776056</v>
       </c>
       <c r="F19">
-        <v>36.7492708731824</v>
+        <v>36.73875280124312</v>
       </c>
       <c r="G19">
-        <v>22.24006390095179</v>
+        <v>21.78226493246013</v>
       </c>
       <c r="H19">
-        <v>16.27011172628558</v>
+        <v>22.26979884216339</v>
       </c>
       <c r="I19">
-        <v>7.041970689120652</v>
+        <v>16.25162171661932</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.03814516837621</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.58849793762509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.58996414726815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.85441760322137</v>
+        <v>25.85265244063104</v>
       </c>
       <c r="C20">
-        <v>21.2900371529352</v>
+        <v>21.28349038142791</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.44125449284738</v>
+        <v>11.44894371721592</v>
       </c>
       <c r="F20">
-        <v>37.53848861433762</v>
+        <v>37.52775573663659</v>
       </c>
       <c r="G20">
-        <v>22.59074408354542</v>
+        <v>22.2149870769747</v>
       </c>
       <c r="H20">
-        <v>16.41229074943215</v>
+        <v>22.62093361234174</v>
       </c>
       <c r="I20">
-        <v>6.960446513261126</v>
+        <v>16.39332251985093</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.956500120332013</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.00909902438334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.01055659306813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.5153260321712</v>
+        <v>27.51320830145479</v>
       </c>
       <c r="C21">
-        <v>22.69196073694325</v>
+        <v>22.68473916264163</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.19608212815385</v>
+        <v>12.20427265090412</v>
       </c>
       <c r="F21">
-        <v>40.13472140282063</v>
+        <v>40.12326653567388</v>
       </c>
       <c r="G21">
-        <v>23.79385541044043</v>
+        <v>23.75520960383733</v>
       </c>
       <c r="H21">
-        <v>16.93459140512718</v>
+        <v>23.82565019297562</v>
       </c>
       <c r="I21">
-        <v>6.695628107563271</v>
+        <v>16.91405350816549</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.691226437919612</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.38361808763941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.38503383861923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.56541028267095</v>
+        <v>28.56305179887471</v>
       </c>
       <c r="C22">
-        <v>23.58146763128642</v>
+        <v>23.57380056540448</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.67324094165893</v>
+        <v>12.68174888925419</v>
       </c>
       <c r="F22">
-        <v>41.79214300085989</v>
+        <v>41.78021353620338</v>
       </c>
       <c r="G22">
-        <v>24.74031333724965</v>
+        <v>24.77444467886916</v>
       </c>
       <c r="H22">
-        <v>17.3109135541754</v>
+        <v>24.63269203255538</v>
       </c>
       <c r="I22">
-        <v>6.530449770058857</v>
+        <v>17.28937948946661</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.525706686461821</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.25413878194373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.25551639599321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.00811449634695</v>
+        <v>28.00588560553479</v>
       </c>
       <c r="C23">
-        <v>23.10907726057268</v>
+        <v>23.10164855594948</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.42001616719072</v>
+        <v>12.42835561079715</v>
       </c>
       <c r="F23">
-        <v>40.91101042387476</v>
+        <v>40.89933469085764</v>
       </c>
       <c r="G23">
-        <v>24.19719769837961</v>
+        <v>24.23057489337253</v>
       </c>
       <c r="H23">
-        <v>17.10675145162815</v>
+        <v>24.19997169143189</v>
       </c>
       <c r="I23">
-        <v>6.617803071356587</v>
+        <v>17.08574624900976</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.613246720751902</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.7920015455512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.79340059238848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82665458739161</v>
+        <v>25.82489504504534</v>
       </c>
       <c r="C24">
-        <v>21.26665310792468</v>
+        <v>21.26011732909864</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.42863677055333</v>
+        <v>11.43631762442129</v>
       </c>
       <c r="F24">
-        <v>37.49536154041034</v>
+        <v>37.48464045402418</v>
       </c>
       <c r="G24">
-        <v>22.57139430616001</v>
+        <v>22.19120578494389</v>
       </c>
       <c r="H24">
-        <v>16.40431955392782</v>
+        <v>22.60155857423113</v>
       </c>
       <c r="I24">
-        <v>6.964891668204511</v>
+        <v>16.38537745309134</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.960952081000062</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.98614935742403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.98760744575403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31360584739013</v>
+        <v>23.31232180680759</v>
       </c>
       <c r="C25">
-        <v>19.15635783926713</v>
+        <v>19.15078252946175</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.30472537122715</v>
+        <v>10.3114855890732</v>
       </c>
       <c r="F25">
-        <v>33.6303078032829</v>
+        <v>33.62062002522289</v>
       </c>
       <c r="G25">
-        <v>20.92828467696035</v>
+        <v>20.12616112002674</v>
       </c>
       <c r="H25">
-        <v>15.78555149787532</v>
+        <v>20.95639209496099</v>
       </c>
       <c r="I25">
-        <v>7.366627560569603</v>
+        <v>15.76894643746882</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.363209124169575</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.91272231539293</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.9142054939904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31670958840896</v>
+        <v>20.20660540509176</v>
       </c>
       <c r="C2">
-        <v>17.48385105524875</v>
+        <v>10.21542086343827</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.525987341139954</v>
+        <v>6.341479201836816</v>
       </c>
       <c r="F2">
-        <v>30.72785397045806</v>
+        <v>40.40255017025253</v>
       </c>
       <c r="G2">
-        <v>18.61810646847855</v>
+        <v>2.122237082652068</v>
       </c>
       <c r="H2">
-        <v>19.81078069101893</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.4217828364693</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.677907997758997</v>
+        <v>6.551924963978389</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.92393124596001</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.525299990555691</v>
       </c>
       <c r="M2">
-        <v>18.27363557603842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.90715479962916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86995499895835</v>
+        <v>18.97522332104594</v>
       </c>
       <c r="C3">
-        <v>16.27965492852625</v>
+        <v>9.597431037438248</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.969304799864416</v>
+        <v>6.334241091097743</v>
       </c>
       <c r="F3">
-        <v>28.76439138068546</v>
+        <v>39.09581209701267</v>
       </c>
       <c r="G3">
-        <v>17.60553500329175</v>
+        <v>2.132621195691907</v>
       </c>
       <c r="H3">
-        <v>19.07545302800349</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.24618634977694</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.901234357892517</v>
+        <v>6.615342730723577</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.79285995467276</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.384154679658495</v>
       </c>
       <c r="M3">
-        <v>17.08835886539124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.04305103019321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.93410499785234</v>
+        <v>18.19329729891054</v>
       </c>
       <c r="C4">
-        <v>15.50250848368008</v>
+        <v>9.201259675855882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.616006788341119</v>
+        <v>6.331822102299638</v>
       </c>
       <c r="F4">
-        <v>27.52300065064554</v>
+        <v>38.30565465700027</v>
       </c>
       <c r="G4">
-        <v>16.98970788456936</v>
+        <v>2.139143558227041</v>
       </c>
       <c r="H4">
-        <v>18.64442876303504</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.16536554895279</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.042999672003043</v>
+        <v>6.655533437832267</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.06227386510001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.299589891250693</v>
       </c>
       <c r="M4">
-        <v>16.32375589973337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.52702904495071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54064872559945</v>
+        <v>17.86837615134253</v>
       </c>
       <c r="C5">
-        <v>15.17618244179497</v>
+        <v>9.03558806382606</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.469255370942113</v>
+        <v>6.331337559610664</v>
       </c>
       <c r="F5">
-        <v>27.00843459703361</v>
+        <v>37.9869532508136</v>
       </c>
       <c r="G5">
-        <v>16.74048979712531</v>
+        <v>2.141840669519411</v>
       </c>
       <c r="H5">
-        <v>18.47397153123947</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.13884087628692</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.101903639982838</v>
+        <v>6.672227210804516</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.77536090368026</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.265690397549295</v>
       </c>
       <c r="M5">
-        <v>16.00284198853629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>29.32044973332766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.47458165858111</v>
+        <v>17.8140518728667</v>
       </c>
       <c r="C6">
-        <v>15.12141071124052</v>
+        <v>9.007822674022322</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.444723382408077</v>
+        <v>6.33128715072985</v>
       </c>
       <c r="F6">
-        <v>26.92247816529744</v>
+        <v>37.93423920561795</v>
       </c>
       <c r="G6">
-        <v>16.69922066237776</v>
+        <v>2.14229095594423</v>
       </c>
       <c r="H6">
-        <v>18.44598171265521</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.13481234863581</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.111752268868253</v>
+        <v>6.675018301933325</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.73305615062886</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.260096306632806</v>
       </c>
       <c r="M6">
-        <v>15.94898922236234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>29.28637256286372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.92884783211995</v>
+        <v>18.18894037941037</v>
       </c>
       <c r="C7">
-        <v>15.49814671024637</v>
+        <v>9.199042510400103</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.61403873270093</v>
+        <v>6.331813548339031</v>
       </c>
       <c r="F7">
-        <v>27.51609570642484</v>
+        <v>38.30134288082073</v>
       </c>
       <c r="G7">
-        <v>16.98633943609629</v>
+        <v>2.139179770711482</v>
       </c>
       <c r="H7">
-        <v>18.64210885749526</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.16498238126299</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.043789519090318</v>
+        <v>6.655757296021409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.05817198666312</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.299130393207358</v>
       </c>
       <c r="M7">
-        <v>16.31946580420262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.52422798136481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82764905093551</v>
+        <v>19.78750046443458</v>
       </c>
       <c r="C8">
-        <v>17.07639659581543</v>
+        <v>10.00578943031996</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.336484996246446</v>
+        <v>6.338558094833278</v>
       </c>
       <c r="F8">
-        <v>30.05843888507178</v>
+        <v>39.94958817661966</v>
       </c>
       <c r="G8">
-        <v>18.26788257323319</v>
+        <v>2.12578860357399</v>
       </c>
       <c r="H8">
-        <v>19.55301613677228</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15.35541117004531</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.753923511987444</v>
+        <v>6.573532020158917</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.54135131234584</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.476217275371384</v>
       </c>
       <c r="M8">
-        <v>17.87255049068782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.60621973848708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.18080839494386</v>
+        <v>22.72786841039808</v>
       </c>
       <c r="C9">
-        <v>19.87849686029058</v>
+        <v>11.45709179495699</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.68849879674862</v>
+        <v>6.368260827289918</v>
       </c>
       <c r="F9">
-        <v>34.94738193111149</v>
+        <v>43.27002885503013</v>
       </c>
       <c r="G9">
-        <v>20.819901646487</v>
+        <v>2.100573798405037</v>
       </c>
       <c r="H9">
-        <v>21.50030163168574</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>15.95913516985309</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.224574926011271</v>
+        <v>6.422200024372958</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.16964042135101</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.838741702336526</v>
       </c>
       <c r="M9">
-        <v>20.62997405490093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.84200952105636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.42905077963939</v>
+        <v>24.92287380832892</v>
       </c>
       <c r="C10">
-        <v>21.76920947180696</v>
+        <v>12.44764773329522</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.71113225149037</v>
+        <v>6.400777742408029</v>
       </c>
       <c r="F10">
-        <v>38.42510271775019</v>
+        <v>45.7553772519414</v>
       </c>
       <c r="G10">
-        <v>22.72780702895586</v>
+        <v>2.082504891052035</v>
       </c>
       <c r="H10">
-        <v>23.02899817799409</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>16.56394529495245</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.864134500372848</v>
+        <v>6.317071184175593</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.93926405217747</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.112710595196125</v>
       </c>
       <c r="M10">
-        <v>22.48730839547955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.55410579029245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40769894287669</v>
+        <v>25.88291307714781</v>
       </c>
       <c r="C11">
-        <v>22.59552701000556</v>
+        <v>12.88305416050762</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.15628239999552</v>
+        <v>6.418064765386999</v>
       </c>
       <c r="F11">
-        <v>39.95741915382095</v>
+        <v>46.89543619644449</v>
       </c>
       <c r="G11">
-        <v>23.65409112639712</v>
+        <v>2.074338107115688</v>
       </c>
       <c r="H11">
-        <v>23.74647675006879</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.87830719864697</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.707983961780181</v>
+        <v>6.270581718854809</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.71159958090004</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.23871910657497</v>
       </c>
       <c r="M11">
-        <v>23.2976126904777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.34873421464203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77219146609228</v>
+        <v>26.2411383675038</v>
       </c>
       <c r="C12">
-        <v>22.90382520223422</v>
+        <v>13.04587013432537</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.32206701980294</v>
+        <v>6.424986634175029</v>
       </c>
       <c r="F12">
-        <v>40.53088223167561</v>
+        <v>47.32854999175748</v>
       </c>
       <c r="G12">
-        <v>24.00443887871836</v>
+        <v>2.071248806444391</v>
       </c>
       <c r="H12">
-        <v>24.02147237774463</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>17.0033260434775</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.650176311777911</v>
+        <v>6.25317301119791</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.99957984896436</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.286616110656621</v>
       </c>
       <c r="M12">
-        <v>23.5996668010439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.65202098010494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69395868635685</v>
+        <v>26.16422101772475</v>
       </c>
       <c r="C13">
-        <v>22.83762846696077</v>
+        <v>13.01089436468084</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.28648448054695</v>
+        <v>6.423478880675935</v>
       </c>
       <c r="F13">
-        <v>40.40767229619953</v>
+        <v>47.23520755139632</v>
       </c>
       <c r="G13">
-        <v>23.92899946886676</v>
+        <v>2.071914071110184</v>
       </c>
       <c r="H13">
-        <v>23.96209749814399</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>16.97612979116735</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.662563544086461</v>
+        <v>6.256913495396859</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.93775405503132</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.276292837619826</v>
       </c>
       <c r="M13">
-        <v>23.53482387114128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.58659466233152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.43780675262107</v>
+        <v>25.91248977888775</v>
       </c>
       <c r="C14">
-        <v>22.62098176636539</v>
+        <v>12.89648969311732</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.16997679682611</v>
+        <v>6.418626596746559</v>
       </c>
       <c r="F14">
-        <v>40.00473211899202</v>
+        <v>46.93104020885806</v>
       </c>
       <c r="G14">
-        <v>23.68292127920968</v>
+        <v>2.0740839093295</v>
       </c>
       <c r="H14">
-        <v>23.76903364467999</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>16.88847085500507</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.703200214651883</v>
+        <v>6.269145539945603</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.73538050846083</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.242656090216538</v>
       </c>
       <c r="M14">
-        <v>23.32255771809276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.37363732056426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.28011942702041</v>
+        <v>25.75761112218601</v>
       </c>
       <c r="C15">
-        <v>22.48768683358568</v>
+        <v>12.82614888162232</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.09825300607159</v>
+        <v>6.415703900362879</v>
       </c>
       <c r="F15">
-        <v>39.75704697050542</v>
+        <v>46.74491348222524</v>
       </c>
       <c r="G15">
-        <v>23.53214477902786</v>
+        <v>2.075413288235481</v>
       </c>
       <c r="H15">
-        <v>23.65121147572572</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>16.83556559607126</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.728270609107131</v>
+        <v>6.276663672912079</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.61084328870054</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.222075659766125</v>
       </c>
       <c r="M15">
-        <v>23.19192064986191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.24350865829489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36422652844238</v>
+        <v>24.859376049188</v>
       </c>
       <c r="C16">
-        <v>21.71454843493456</v>
+        <v>12.41889703443316</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.68164544644487</v>
+        <v>6.399699582317712</v>
       </c>
       <c r="F16">
-        <v>38.32399070177607</v>
+        <v>45.68106355936944</v>
       </c>
       <c r="G16">
-        <v>22.66720070708192</v>
+        <v>2.083039315952933</v>
       </c>
       <c r="H16">
-        <v>22.98256280734763</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>16.54421906190277</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.874512284639636</v>
+        <v>6.320136530303176</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.88815023484094</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.104501722929369</v>
       </c>
       <c r="M16">
-        <v>22.43367204866215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.50250064834642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79122609069913</v>
+        <v>24.29862263886744</v>
       </c>
       <c r="C17">
-        <v>21.23176860395654</v>
+        <v>12.1652485724055</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.42100253173753</v>
+        <v>6.390531662688452</v>
       </c>
       <c r="F17">
-        <v>37.43235496829463</v>
+        <v>45.03085200289379</v>
       </c>
       <c r="G17">
-        <v>22.16238720266281</v>
+        <v>2.087728263527673</v>
       </c>
       <c r="H17">
-        <v>22.57809145181472</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>16.37577377240946</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.966352510323845</v>
+        <v>6.347149761861607</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.43657666098668</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.032712511954291</v>
       </c>
       <c r="M17">
-        <v>21.95977196549437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.05202000170806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.45748576166473</v>
+        <v>23.97245540677107</v>
       </c>
       <c r="C18">
-        <v>20.95089077800051</v>
+        <v>12.01791717210763</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.26919390076688</v>
+        <v>6.385492198388294</v>
       </c>
       <c r="F18">
-        <v>36.91480438275544</v>
+        <v>44.65775131064839</v>
       </c>
       <c r="G18">
-        <v>21.87836231138399</v>
+        <v>2.090430484244743</v>
       </c>
       <c r="H18">
-        <v>22.34751585673583</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>16.28256126951959</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.019897219723423</v>
+        <v>6.362812308754916</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.17375400825418</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.991551774145821</v>
       </c>
       <c r="M18">
-        <v>21.68392728159464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.79439196313672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34376469205845</v>
+        <v>23.86139026932267</v>
       </c>
       <c r="C19">
-        <v>20.85523446312362</v>
+        <v>11.96778264063952</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.21746597776056</v>
+        <v>6.383825584873698</v>
       </c>
       <c r="F19">
-        <v>36.73875280124312</v>
+        <v>44.53157772873202</v>
       </c>
       <c r="G19">
-        <v>21.78226493246013</v>
+        <v>2.091346436671763</v>
       </c>
       <c r="H19">
-        <v>22.26979884216339</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>16.25162171661932</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.03814516837621</v>
+        <v>6.368136794982949</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.08423004595752</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.977638510184024</v>
       </c>
       <c r="M19">
-        <v>21.58996414726815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.70741470054159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.85265244063104</v>
+        <v>24.35869075261878</v>
       </c>
       <c r="C20">
-        <v>21.28349038142791</v>
+        <v>12.19239804304963</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.44894371721592</v>
+        <v>6.391483304408642</v>
       </c>
       <c r="F20">
-        <v>37.52775573663659</v>
+        <v>45.09997663784701</v>
       </c>
       <c r="G20">
-        <v>22.2149870769747</v>
+        <v>2.087228602058672</v>
       </c>
       <c r="H20">
-        <v>22.62093361234174</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>16.39332251985093</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.956500120332013</v>
+        <v>6.344261170690094</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.4849657216208</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.040341235950902</v>
       </c>
       <c r="M20">
-        <v>22.01055659306813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.09982101039895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.51320830145479</v>
+        <v>25.98657187864264</v>
       </c>
       <c r="C21">
-        <v>22.68473916264163</v>
+        <v>12.93014802050228</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.20427265090412</v>
+        <v>6.420041487104086</v>
       </c>
       <c r="F21">
-        <v>40.12326653567388</v>
+        <v>47.02034288969315</v>
       </c>
       <c r="G21">
-        <v>23.75520960383733</v>
+        <v>2.073446523212616</v>
       </c>
       <c r="H21">
-        <v>23.82565019297562</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>16.91405350816549</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.691226437919612</v>
+        <v>6.2655473363671</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.79494248001707</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.252531238723233</v>
       </c>
       <c r="M21">
-        <v>23.38503383861923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.43612237420311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.56305179887471</v>
+        <v>27.01959755555785</v>
       </c>
       <c r="C22">
-        <v>23.57380056540448</v>
+        <v>13.40035842613496</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.68174888925419</v>
+        <v>6.440905381733628</v>
       </c>
       <c r="F22">
-        <v>41.78021353620338</v>
+        <v>48.28363908253102</v>
       </c>
       <c r="G22">
-        <v>24.77444467886916</v>
+        <v>2.064455868320162</v>
       </c>
       <c r="H22">
-        <v>24.63269203255538</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>17.28937948946661</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.525706686461821</v>
+        <v>6.215248007860322</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.62505336671223</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.392256674909779</v>
       </c>
       <c r="M22">
-        <v>24.25551639599321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.32342629612374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.00588560553479</v>
+        <v>26.47099899672475</v>
       </c>
       <c r="C23">
-        <v>23.10164855594948</v>
+        <v>13.15044554235013</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.42835561079715</v>
+        <v>6.429562360643594</v>
       </c>
       <c r="F23">
-        <v>40.89933469085764</v>
+        <v>47.60860795781653</v>
       </c>
       <c r="G23">
-        <v>24.23057489337253</v>
+        <v>2.069254389867058</v>
       </c>
       <c r="H23">
-        <v>24.19997169143189</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>17.08574624900976</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.613246720751902</v>
+        <v>6.241987172640625</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.1843134484831</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.317591157702381</v>
       </c>
       <c r="M23">
-        <v>23.79340059238848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.84852818814004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82489504504534</v>
+        <v>24.33154575605261</v>
       </c>
       <c r="C24">
-        <v>21.26011732909864</v>
+        <v>12.18012846575439</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.43631762442129</v>
+        <v>6.391052347988327</v>
       </c>
       <c r="F24">
-        <v>37.48464045402418</v>
+        <v>45.06872316636929</v>
       </c>
       <c r="G24">
-        <v>22.19120578494389</v>
+        <v>2.087454478498867</v>
       </c>
       <c r="H24">
-        <v>22.60155857423113</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>16.38537745309134</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.960952081000062</v>
+        <v>6.345566691018464</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.4630990321031</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.036891940046991</v>
       </c>
       <c r="M24">
-        <v>21.98760744575403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.07820594791229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31232180680759</v>
+        <v>21.94337145005387</v>
       </c>
       <c r="C25">
-        <v>19.15078252946175</v>
+        <v>11.0781240319407</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.3114855890732</v>
+        <v>6.358399383009526</v>
       </c>
       <c r="F25">
-        <v>33.62062002522289</v>
+        <v>42.36332142558492</v>
       </c>
       <c r="G25">
-        <v>20.12616112002674</v>
+        <v>2.107300712484276</v>
       </c>
       <c r="H25">
-        <v>20.95639209496099</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>15.76894643746882</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.363209124169575</v>
+        <v>6.462079842034678</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.48769088531591</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.739220507343756</v>
       </c>
       <c r="M25">
-        <v>19.9142054939904</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.22506610294581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.20660540509176</v>
+        <v>13.97856591991223</v>
       </c>
       <c r="C2">
-        <v>10.21542086343827</v>
+        <v>8.054925309478602</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.341479201836816</v>
+        <v>29.315387611007</v>
       </c>
       <c r="F2">
-        <v>40.40255017025253</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.122237082652068</v>
+        <v>36.23988840485383</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.60590425578816</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.551924963978389</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.92393124596001</v>
+        <v>12.49640537451487</v>
       </c>
       <c r="L2">
-        <v>6.525299990555691</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.90715479962916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.97522332104594</v>
+        <v>13.01896150302619</v>
       </c>
       <c r="C3">
-        <v>9.597431037438248</v>
+        <v>7.60961128134683</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.334241091097743</v>
+        <v>27.16167173868865</v>
       </c>
       <c r="F3">
-        <v>39.09581209701267</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.132621195691907</v>
+        <v>35.06422782059597</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.53290877025534</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.615342730723577</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.79285995467276</v>
+        <v>11.71699296354832</v>
       </c>
       <c r="L3">
-        <v>6.384154679658495</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.04305103019321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.19329729891054</v>
+        <v>12.39826787755348</v>
       </c>
       <c r="C4">
-        <v>9.201259675855882</v>
+        <v>7.324675840497689</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.331822102299638</v>
+        <v>25.77945586263948</v>
       </c>
       <c r="F4">
-        <v>38.30565465700027</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.139143558227041</v>
+        <v>34.37485378276438</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.49891129929584</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.655533437832267</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.06227386510001</v>
+        <v>11.21492872462779</v>
       </c>
       <c r="L4">
-        <v>6.299589891250693</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.52702904495071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86837615134253</v>
+        <v>12.13731410618616</v>
       </c>
       <c r="C5">
-        <v>9.03558806382606</v>
+        <v>7.205674674372778</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.331337559610664</v>
+        <v>25.20075265204764</v>
       </c>
       <c r="F5">
-        <v>37.9869532508136</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.141840669519411</v>
+        <v>34.10205710710918</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.48763363192142</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.672227210804516</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.77536090368026</v>
+        <v>11.00439483333027</v>
       </c>
       <c r="L5">
-        <v>6.265690397549295</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.32044973332766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.8140518728667</v>
+        <v>12.09349606751958</v>
       </c>
       <c r="C6">
-        <v>9.007822674022322</v>
+        <v>7.18574071234266</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.33128715072985</v>
+        <v>25.10371593836241</v>
       </c>
       <c r="F6">
-        <v>37.93423920561795</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.14229095594423</v>
+        <v>34.05724904173482</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.48591241779996</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.675018301933325</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.73305615062886</v>
+        <v>10.96907664656356</v>
       </c>
       <c r="L6">
-        <v>6.260096306632806</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.28637256286372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.18894037941037</v>
+        <v>12.3947811443224</v>
       </c>
       <c r="C7">
-        <v>9.199042510400103</v>
+        <v>7.323082621040493</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.331813548339031</v>
+        <v>25.77171428271001</v>
       </c>
       <c r="F7">
-        <v>38.30134288082073</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.139179770711482</v>
+        <v>34.37114189663375</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.49874896169662</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.655757296021409</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.05817198666312</v>
+        <v>11.21211346232902</v>
       </c>
       <c r="L7">
-        <v>6.299130393207358</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.52422798136481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78750046443458</v>
+        <v>13.65417007800587</v>
       </c>
       <c r="C8">
-        <v>10.00578943031996</v>
+        <v>7.903769431367591</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.338558094833278</v>
+        <v>28.58495544648219</v>
       </c>
       <c r="F8">
-        <v>39.94958817661966</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.12578860357399</v>
+        <v>35.82775446887202</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.57840143794054</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.573532020158917</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.54135131234584</v>
+        <v>12.23251915886983</v>
       </c>
       <c r="L8">
-        <v>6.476217275371384</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.60621973848708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.72786841039808</v>
+        <v>15.8786999493197</v>
       </c>
       <c r="C9">
-        <v>11.45709179495699</v>
+        <v>8.951678245822309</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.368260827289918</v>
+        <v>33.64664236589004</v>
       </c>
       <c r="F9">
-        <v>43.27002885503013</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>2.100573798405037</v>
+        <v>38.94424141967899</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.82709793064756</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.422200024372958</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.16964042135101</v>
+        <v>14.0492423969234</v>
       </c>
       <c r="L9">
-        <v>6.838741702336526</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.84200952105636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.92287380832892</v>
+        <v>17.37086171458996</v>
       </c>
       <c r="C10">
-        <v>12.44764773329522</v>
+        <v>9.668065816789253</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.400777742408029</v>
+        <v>37.11860668750453</v>
       </c>
       <c r="F10">
-        <v>45.7553772519414</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.082504891052035</v>
+        <v>41.39808384778362</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.0756102305277</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.317071184175593</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.93926405217747</v>
+        <v>15.27587968506073</v>
       </c>
       <c r="L10">
-        <v>7.112710595196125</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.55410579029245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.88291307714781</v>
+        <v>18.02060527110227</v>
       </c>
       <c r="C11">
-        <v>12.88305416050762</v>
+        <v>9.983067116401767</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.418064765386999</v>
+        <v>38.6523909770455</v>
       </c>
       <c r="F11">
-        <v>46.89543619644449</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.074338107115688</v>
+        <v>42.55234716067937</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.20510087401104</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.270581718854809</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.71159958090004</v>
+        <v>15.81169306226321</v>
       </c>
       <c r="L11">
-        <v>7.23871910657497</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.34873421464203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.2411383675038</v>
+        <v>18.26263649830191</v>
       </c>
       <c r="C12">
-        <v>13.04587013432537</v>
+        <v>10.10086495193378</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.424986634175029</v>
+        <v>39.22740026903539</v>
       </c>
       <c r="F12">
-        <v>47.32854999175748</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>2.071248806444391</v>
+        <v>42.99519478829452</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.25668938176363</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.25317301119791</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.99957984896436</v>
+        <v>16.01152805831499</v>
       </c>
       <c r="L12">
-        <v>7.286616110656621</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.65202098010494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.16422101772475</v>
+        <v>18.21068637821558</v>
       </c>
       <c r="C13">
-        <v>13.01089436468084</v>
+        <v>10.0755597268289</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.423478880675935</v>
+        <v>39.10380645852982</v>
       </c>
       <c r="F13">
-        <v>47.23520755139632</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.071914071110184</v>
+        <v>42.89955800510705</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.24546216535142</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.256913495396859</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.93775405503132</v>
+        <v>15.96862415885835</v>
       </c>
       <c r="L13">
-        <v>7.276292837619826</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.58659466233152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.91248977888775</v>
+        <v>18.04059673336521</v>
       </c>
       <c r="C14">
-        <v>12.89648969311732</v>
+        <v>9.992787684257042</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.418626596746559</v>
+        <v>38.6998088608547</v>
       </c>
       <c r="F14">
-        <v>46.93104020885806</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.0740839093295</v>
+        <v>42.58866316451965</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.20929279138424</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.269145539945603</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.73538050846083</v>
+        <v>15.8281942626059</v>
       </c>
       <c r="L14">
-        <v>7.242656090216538</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.37363732056426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.75761112218601</v>
+        <v>17.9358945663452</v>
       </c>
       <c r="C15">
-        <v>12.82614888162232</v>
+        <v>9.941896518133404</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.415703900362879</v>
+        <v>38.45161756842941</v>
       </c>
       <c r="F15">
-        <v>46.74491348222524</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.075413288235481</v>
+        <v>42.39899071097349</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.18747634301405</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.276663672912079</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.61084328870054</v>
+        <v>15.74178168971865</v>
       </c>
       <c r="L15">
-        <v>7.222075659766125</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.24350865829489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.859376049188</v>
+        <v>17.32782856752041</v>
       </c>
       <c r="C16">
-        <v>12.41889703443316</v>
+        <v>9.647267028652164</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.399699582317712</v>
+        <v>37.01751461995345</v>
       </c>
       <c r="F16">
-        <v>45.68106355936944</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.083039315952933</v>
+        <v>41.32343702093566</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.06749441747336</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.320136530303176</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.88815023484094</v>
+        <v>15.2404267204409</v>
       </c>
       <c r="L16">
-        <v>7.104501722929369</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.50250064834642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.29862263886744</v>
+        <v>16.94747121068807</v>
       </c>
       <c r="C17">
-        <v>12.1652485724055</v>
+        <v>9.463783704162855</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.390531662688452</v>
+        <v>36.12655979920289</v>
       </c>
       <c r="F17">
-        <v>45.03085200289379</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.087728263527673</v>
+        <v>40.67352599534458</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.99823096225296</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.347149761861607</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.43657666098668</v>
+        <v>14.9272608539064</v>
       </c>
       <c r="L17">
-        <v>7.032712511954291</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.05202000170806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.97245540677107</v>
+        <v>16.72595469345976</v>
       </c>
       <c r="C18">
-        <v>12.01791717210763</v>
+        <v>9.357218417725115</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.385492198388294</v>
+        <v>35.60975997188375</v>
       </c>
       <c r="F18">
-        <v>44.65775131064839</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.090430484244743</v>
+        <v>40.30326808191641</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.95992801618984</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.362812308754916</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.17375400825418</v>
+        <v>14.74503883112409</v>
       </c>
       <c r="L18">
-        <v>6.991551774145821</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.79439196313672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.86139026932267</v>
+        <v>16.65047682728562</v>
       </c>
       <c r="C19">
-        <v>11.96778264063952</v>
+        <v>9.320958125225106</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.383825584873698</v>
+        <v>35.4340125293254</v>
       </c>
       <c r="F19">
-        <v>44.53157772873202</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.091346436671763</v>
+        <v>40.17850830715237</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.94721747443638</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.368136794982949</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.08423004595752</v>
+        <v>14.68297789292297</v>
       </c>
       <c r="L19">
-        <v>6.977638510184024</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.70741470054159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.35869075261878</v>
+        <v>16.98824386678116</v>
       </c>
       <c r="C20">
-        <v>12.19239804304963</v>
+        <v>9.483421956634681</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.391483304408642</v>
+        <v>36.22184810968695</v>
       </c>
       <c r="F20">
-        <v>45.09997663784701</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.087228602058672</v>
+        <v>40.74234057075019</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.00544392201168</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.344261170690094</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.4849657216208</v>
+        <v>14.96081411683695</v>
       </c>
       <c r="L20">
-        <v>7.040341235950902</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.09982101039895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.98657187864264</v>
+        <v>18.09066367910347</v>
       </c>
       <c r="C21">
-        <v>12.93014802050228</v>
+        <v>10.01713945549905</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.420041487104086</v>
+        <v>38.81862359274118</v>
       </c>
       <c r="F21">
-        <v>47.02034288969315</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.073446523212616</v>
+        <v>42.67982154354748</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.21984574741542</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.2655473363671</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.79494248001707</v>
+        <v>15.86952403506395</v>
       </c>
       <c r="L21">
-        <v>7.252531238723233</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.43612237420311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.01959755555785</v>
+        <v>18.78786117921066</v>
       </c>
       <c r="C22">
-        <v>13.40035842613496</v>
+        <v>10.35734157513793</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.440905381733628</v>
+        <v>40.4823877251962</v>
       </c>
       <c r="F22">
-        <v>48.28363908253102</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.064455868320162</v>
+        <v>43.97982630806784</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.3749498866095</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.215248007860322</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.62505336671223</v>
+        <v>16.4456215433218</v>
       </c>
       <c r="L22">
-        <v>7.392256674909779</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.32342629612374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.47099899672475</v>
+        <v>18.41782599771522</v>
       </c>
       <c r="C23">
-        <v>13.15044554235013</v>
+        <v>10.17652635077693</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.429562360643594</v>
+        <v>39.59717849467872</v>
       </c>
       <c r="F23">
-        <v>47.60860795781653</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.069254389867058</v>
+        <v>43.28277691184701</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.29073108845567</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.241987172640625</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.1843134484831</v>
+        <v>16.13972901887853</v>
       </c>
       <c r="L23">
-        <v>7.317591157702381</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.84852818814004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.33154575605261</v>
+        <v>16.96981941958621</v>
       </c>
       <c r="C24">
-        <v>12.18012846575439</v>
+        <v>9.474546867027284</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.391052347988327</v>
+        <v>36.17878257986116</v>
       </c>
       <c r="F24">
-        <v>45.06872316636929</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.087454478498867</v>
+        <v>40.71121897932179</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.0021782302473</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.345566691018464</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.4630990321031</v>
+        <v>14.94565148229277</v>
       </c>
       <c r="L24">
-        <v>7.036891940046991</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.07820594791229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.94337145005387</v>
+        <v>15.30244033286257</v>
       </c>
       <c r="C25">
-        <v>11.0781240319407</v>
+        <v>8.67777842954521</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.358399383009526</v>
+        <v>32.32309321875433</v>
       </c>
       <c r="F25">
-        <v>42.36332142558492</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.107300712484276</v>
+        <v>38.07287208318056</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.74896455080446</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.462079842034678</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.48769088531591</v>
+        <v>13.57712346209854</v>
       </c>
       <c r="L25">
-        <v>6.739220507343756</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.22506610294581</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.97856591991223</v>
+        <v>10.12973313815042</v>
       </c>
       <c r="C2">
-        <v>8.054925309478602</v>
+        <v>5.394674703986428</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.315387611007</v>
+        <v>16.39776727728987</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>36.23988840485383</v>
+        <v>36.17661620787334</v>
       </c>
       <c r="H2">
-        <v>11.60590425578816</v>
+        <v>15.85790271780439</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.49640537451487</v>
+        <v>9.372913197012805</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.01896150302619</v>
+        <v>9.840209347290049</v>
       </c>
       <c r="C3">
-        <v>7.60961128134683</v>
+        <v>5.185536443411548</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.16167173868865</v>
+        <v>15.47323879823657</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>35.06422782059597</v>
+        <v>35.98560517980675</v>
       </c>
       <c r="H3">
-        <v>11.53290877025534</v>
+        <v>15.88507003811607</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.71699296354832</v>
+        <v>9.177164971097383</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39826787755348</v>
+        <v>9.660893138802878</v>
       </c>
       <c r="C4">
-        <v>7.324675840497689</v>
+        <v>5.051527209673093</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.77945586263948</v>
+        <v>14.88159279326575</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>34.37485378276438</v>
+        <v>35.88060449216924</v>
       </c>
       <c r="H4">
-        <v>11.49891129929584</v>
+        <v>15.90499443110911</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.21492872462779</v>
+        <v>9.057374919679134</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.13731410618616</v>
+        <v>9.587556444854613</v>
       </c>
       <c r="C5">
-        <v>7.205674674372778</v>
+        <v>4.995551070733725</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.20075265204764</v>
+        <v>14.63473444617097</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>34.10205710710918</v>
+        <v>35.84092265894309</v>
       </c>
       <c r="H5">
-        <v>11.48763363192142</v>
+        <v>15.91392575714618</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.00439483333027</v>
+        <v>9.008734779962442</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.09349606751958</v>
+        <v>9.575366794977718</v>
       </c>
       <c r="C6">
-        <v>7.18574071234266</v>
+        <v>4.986175070586703</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.10371593836241</v>
+        <v>14.59340505992377</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>34.05724904173482</v>
+        <v>35.83452159374572</v>
       </c>
       <c r="H6">
-        <v>11.48591241779996</v>
+        <v>15.91545772830635</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.96907664656356</v>
+        <v>9.000670915526559</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3947811443224</v>
+        <v>9.659904992587339</v>
       </c>
       <c r="C7">
-        <v>7.323082621040493</v>
+        <v>5.050777769288202</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.77171428271001</v>
+        <v>14.87828648917138</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>34.37114189663375</v>
+        <v>35.88005672969609</v>
       </c>
       <c r="H7">
-        <v>11.49874896169662</v>
+        <v>15.90511159947421</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.21211346232902</v>
+        <v>9.056718132466708</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.65417007800587</v>
+        <v>10.0302995017162</v>
       </c>
       <c r="C8">
-        <v>7.903769431367591</v>
+        <v>5.323748639585678</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.58495544648219</v>
+        <v>16.08411518587273</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>35.82775446887202</v>
+        <v>36.10821969813101</v>
       </c>
       <c r="H8">
-        <v>11.57840143794054</v>
+        <v>15.86659467079273</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.23251915886983</v>
+        <v>9.305380488735675</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.8786999493197</v>
+        <v>10.73922638865524</v>
       </c>
       <c r="C9">
-        <v>8.951678245822309</v>
+        <v>5.813089659827588</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.64664236589004</v>
+        <v>18.30270266975359</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>38.94424141967899</v>
+        <v>36.65199336892591</v>
       </c>
       <c r="H9">
-        <v>11.82709793064756</v>
+        <v>15.81695560970081</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.0492423969234</v>
+        <v>9.792988697588388</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37086171458996</v>
+        <v>11.24313493738778</v>
       </c>
       <c r="C10">
-        <v>9.668065816789253</v>
+        <v>6.14287222061152</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.11860668750453</v>
+        <v>19.93413146704076</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>41.39808384778362</v>
+        <v>37.10838989838404</v>
       </c>
       <c r="H10">
-        <v>12.0756102305277</v>
+        <v>15.79647483276256</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.27587968506073</v>
+        <v>10.14711646544621</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02060527110227</v>
+        <v>11.46752717483802</v>
       </c>
       <c r="C11">
-        <v>9.983067116401767</v>
+        <v>6.286162852228859</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.6523909770455</v>
+        <v>20.6346565638774</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>42.55234716067937</v>
+        <v>37.32786398841801</v>
       </c>
       <c r="H11">
-        <v>12.20510087401104</v>
+        <v>15.79066916521361</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.81169306226321</v>
+        <v>10.30651535319929</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.26263649830191</v>
+        <v>11.55171687547554</v>
       </c>
       <c r="C12">
-        <v>10.10086495193378</v>
+        <v>6.339436956441398</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.22740026903539</v>
+        <v>20.893979656225</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>42.99519478829452</v>
+        <v>37.4126282800045</v>
       </c>
       <c r="H12">
-        <v>12.25668938176363</v>
+        <v>15.78897847257436</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.01152805831499</v>
+        <v>10.36656920808739</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.21068637821558</v>
+        <v>11.53362122875186</v>
       </c>
       <c r="C13">
-        <v>10.0755597268289</v>
+        <v>6.328007594235195</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.10380645852982</v>
+        <v>20.83839389627077</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>42.89955800510705</v>
+        <v>37.39430005584335</v>
       </c>
       <c r="H13">
-        <v>12.24546216535142</v>
+        <v>15.78931996594191</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.96862415885835</v>
+        <v>10.35365015652611</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04059673336521</v>
+        <v>11.47446966910562</v>
       </c>
       <c r="C14">
-        <v>9.992787684257042</v>
+        <v>6.290565624308556</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.6998088608547</v>
+        <v>20.65611029275584</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>42.58866316451965</v>
+        <v>37.33480475100635</v>
       </c>
       <c r="H14">
-        <v>12.20929279138424</v>
+        <v>15.79051987837338</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.8281942626059</v>
+        <v>10.31146252173882</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.9358945663452</v>
+        <v>11.4381332497636</v>
       </c>
       <c r="C15">
-        <v>9.941896518133404</v>
+        <v>6.267502287049305</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.45161756842941</v>
+        <v>20.54368239999211</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>42.39899071097349</v>
+        <v>37.29857600529884</v>
       </c>
       <c r="H15">
-        <v>12.18747634301405</v>
+        <v>15.79132107010239</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.74178168971865</v>
+        <v>10.28557958183019</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.32782856752041</v>
+        <v>11.2283653886003</v>
       </c>
       <c r="C16">
-        <v>9.647267028652164</v>
+        <v>6.133370710886362</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.01751461995345</v>
+        <v>19.88751594411908</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>41.32343702093566</v>
+        <v>37.09428110059179</v>
       </c>
       <c r="H16">
-        <v>12.06749441747336</v>
+        <v>15.79692515225143</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.2404267204409</v>
+        <v>10.13665976007965</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.94747121068807</v>
+        <v>11.09837582593741</v>
       </c>
       <c r="C17">
-        <v>9.463783704162855</v>
+        <v>6.049347089031314</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.12655979920289</v>
+        <v>19.47434369432803</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>40.67352599534458</v>
+        <v>36.9719549149282</v>
       </c>
       <c r="H17">
-        <v>11.99823096225296</v>
+        <v>15.80126449199447</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.9272608539064</v>
+        <v>10.04482177407302</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.72595469345976</v>
+        <v>11.02315853131434</v>
       </c>
       <c r="C18">
-        <v>9.357218417725115</v>
+        <v>6.0003864874778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.60975997188375</v>
+        <v>19.23277842688593</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>40.30326808191641</v>
+        <v>36.90271550172602</v>
       </c>
       <c r="H18">
-        <v>11.95992801618984</v>
+        <v>15.80409069238675</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.74503883112409</v>
+        <v>9.991842934089611</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.65047682728562</v>
+        <v>10.99761662178247</v>
       </c>
       <c r="C19">
-        <v>9.320958125225106</v>
+        <v>5.983701288131293</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.4340125293254</v>
+        <v>19.15031434741686</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>40.17850830715237</v>
+        <v>36.87946595543535</v>
       </c>
       <c r="H19">
-        <v>11.94721747443638</v>
+        <v>15.80510423734048</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.68297789292297</v>
+        <v>9.973880395840954</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.98824386678116</v>
+        <v>11.1122607431609</v>
       </c>
       <c r="C20">
-        <v>9.483421956634681</v>
+        <v>6.058357151569787</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.22184810968695</v>
+        <v>19.51873199044467</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>40.74234057075019</v>
+        <v>36.98486124990664</v>
       </c>
       <c r="H20">
-        <v>12.00544392201168</v>
+        <v>15.80076835278094</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.96081411683695</v>
+        <v>10.05461470644889</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09066367910347</v>
+        <v>11.49186581269206</v>
       </c>
       <c r="C21">
-        <v>10.01713945549905</v>
+        <v>6.301590162451205</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.81862359274118</v>
+        <v>20.70981262941732</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>42.67982154354748</v>
+        <v>37.3522354954206</v>
       </c>
       <c r="H21">
-        <v>12.21984574741542</v>
+        <v>15.79015363191715</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.86952403506395</v>
+        <v>10.32386287013237</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.78786117921066</v>
+        <v>11.7353625022803</v>
       </c>
       <c r="C22">
-        <v>10.35734157513793</v>
+        <v>6.454797470489389</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.4823877251962</v>
+        <v>21.45358406938259</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>43.97982630806784</v>
+        <v>37.60195134661809</v>
       </c>
       <c r="H22">
-        <v>12.3749498866095</v>
+        <v>15.78617724765146</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.4456215433218</v>
+        <v>10.49801589771837</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.41782599771522</v>
+        <v>11.6058510029802</v>
       </c>
       <c r="C23">
-        <v>10.17652635077693</v>
+        <v>6.373560435538284</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.59717849467872</v>
+        <v>21.05978013657664</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>43.28277691184701</v>
+        <v>37.46781134606844</v>
       </c>
       <c r="H23">
-        <v>12.29073108845567</v>
+        <v>15.7880276977632</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.13972901887853</v>
+        <v>10.40525319602538</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.96981941958621</v>
+        <v>11.10598487467604</v>
       </c>
       <c r="C24">
-        <v>9.474546867027284</v>
+        <v>6.054285738859056</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.17878257986116</v>
+        <v>19.49867658810662</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>40.71121897932179</v>
+        <v>36.97902290442926</v>
       </c>
       <c r="H24">
-        <v>12.0021782302473</v>
+        <v>15.80099162504433</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.94565148229277</v>
+        <v>10.05018787738265</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.30244033286257</v>
+        <v>10.54999226189833</v>
       </c>
       <c r="C25">
-        <v>8.67777842954521</v>
+        <v>5.685824452426333</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.32309321875433</v>
+        <v>17.68583023637704</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>38.07287208318056</v>
+        <v>36.49474301863735</v>
       </c>
       <c r="H25">
-        <v>11.74896455080446</v>
+        <v>15.82759042982474</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.57712346209854</v>
+        <v>9.661514900567237</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.12973313815042</v>
+        <v>13.97856591991223</v>
       </c>
       <c r="C2">
-        <v>5.394674703986428</v>
+        <v>8.054925309478614</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.39776727728987</v>
+        <v>29.31538761100697</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>36.17661620787334</v>
+        <v>36.23988840485383</v>
       </c>
       <c r="H2">
-        <v>15.85790271780439</v>
+        <v>11.60590425578813</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.372913197012805</v>
+        <v>12.49640537451487</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.840209347290049</v>
+        <v>13.0189615030262</v>
       </c>
       <c r="C3">
-        <v>5.185536443411548</v>
+        <v>7.609611281346957</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.47323879823657</v>
+        <v>27.16167173868864</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>35.98560517980675</v>
+        <v>35.06422782059585</v>
       </c>
       <c r="H3">
-        <v>15.88507003811607</v>
+        <v>11.5329087702553</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.177164971097383</v>
+        <v>11.71699296354836</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.660893138802878</v>
+        <v>12.39826787755352</v>
       </c>
       <c r="C4">
-        <v>5.051527209673093</v>
+        <v>7.32467584049785</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.88159279326575</v>
+        <v>25.77945586263947</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>35.88060449216924</v>
+        <v>34.37485378276448</v>
       </c>
       <c r="H4">
-        <v>15.90499443110911</v>
+        <v>11.49891129929582</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.057374919679134</v>
+        <v>11.21492872462785</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.587556444854613</v>
+        <v>12.13731410618608</v>
       </c>
       <c r="C5">
-        <v>4.995551070733725</v>
+        <v>7.205674674372831</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.63473444617097</v>
+        <v>25.20075265204762</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>35.84092265894309</v>
+        <v>34.10205710710979</v>
       </c>
       <c r="H5">
-        <v>15.91392575714618</v>
+        <v>11.48763363192153</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.008734779962442</v>
+        <v>11.0043948333302</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.575366794977718</v>
+        <v>12.09349606751954</v>
       </c>
       <c r="C6">
-        <v>4.986175070586703</v>
+        <v>7.185740712342666</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.59340505992377</v>
+        <v>25.10371593836239</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>35.83452159374572</v>
+        <v>34.05724904173498</v>
       </c>
       <c r="H6">
-        <v>15.91545772830635</v>
+        <v>11.48591241780002</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.000670915526559</v>
+        <v>10.96907664656352</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.659904992587339</v>
+        <v>12.39478114432249</v>
       </c>
       <c r="C7">
-        <v>5.050777769288202</v>
+        <v>7.32308262104041</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.87828648917138</v>
+        <v>25.77171428271009</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>35.88005672969609</v>
+        <v>34.37114189663354</v>
       </c>
       <c r="H7">
-        <v>15.90511159947421</v>
+        <v>11.49874896169653</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.056718132466708</v>
+        <v>11.21211346232906</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.0302995017162</v>
+        <v>13.65417007800585</v>
       </c>
       <c r="C8">
-        <v>5.323748639585678</v>
+        <v>7.903769431367699</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.08411518587273</v>
+        <v>28.58495544648217</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>36.10821969813101</v>
+        <v>35.82775446887202</v>
       </c>
       <c r="H8">
-        <v>15.86659467079273</v>
+        <v>11.57840143794049</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.305380488735675</v>
+        <v>12.23251915886985</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.73922638865524</v>
+        <v>15.87869994931973</v>
       </c>
       <c r="C9">
-        <v>5.813089659827588</v>
+        <v>8.951678245822285</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.30270266975359</v>
+        <v>33.64664236589003</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>36.65199336892591</v>
+        <v>38.94424141967902</v>
       </c>
       <c r="H9">
-        <v>15.81695560970081</v>
+        <v>11.82709793064761</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.792988697588388</v>
+        <v>14.04924239692341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.24313493738778</v>
+        <v>17.37086171458998</v>
       </c>
       <c r="C10">
-        <v>6.14287222061152</v>
+        <v>9.66806581678925</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.93413146704076</v>
+        <v>37.11860668750455</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>37.10838989838404</v>
+        <v>41.3980838477836</v>
       </c>
       <c r="H10">
-        <v>15.79647483276256</v>
+        <v>12.07561023052771</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.14711646544621</v>
+        <v>15.2758796850608</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.46752717483802</v>
+        <v>18.0206052711024</v>
       </c>
       <c r="C11">
-        <v>6.286162852228859</v>
+        <v>9.983067116401852</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.6346565638774</v>
+        <v>38.65239097704553</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>37.32786398841801</v>
+        <v>42.55234716067937</v>
       </c>
       <c r="H11">
-        <v>15.79066916521361</v>
+        <v>12.20510087401101</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.30651535319929</v>
+        <v>15.81169306226335</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.55171687547554</v>
+        <v>18.26263649830194</v>
       </c>
       <c r="C12">
-        <v>6.339436956441398</v>
+        <v>10.10086495193378</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.893979656225</v>
+        <v>39.22740026903528</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>37.4126282800045</v>
+        <v>42.99519478829433</v>
       </c>
       <c r="H12">
-        <v>15.78897847257436</v>
+        <v>12.25668938176364</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.36656920808739</v>
+        <v>16.01152805831502</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.53362122875186</v>
+        <v>18.21068637821564</v>
       </c>
       <c r="C13">
-        <v>6.328007594235195</v>
+        <v>10.07555972682907</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.83839389627077</v>
+        <v>39.10380645852985</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>37.39430005584335</v>
+        <v>42.89955800510727</v>
       </c>
       <c r="H13">
-        <v>15.78931996594191</v>
+        <v>12.24546216535143</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.35365015652611</v>
+        <v>15.9686241588585</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.47446966910562</v>
+        <v>18.04059673336518</v>
       </c>
       <c r="C14">
-        <v>6.290565624308556</v>
+        <v>9.992787684257255</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.65611029275584</v>
+        <v>38.6998088608547</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>37.33480475100635</v>
+        <v>42.58866316451938</v>
       </c>
       <c r="H14">
-        <v>15.79051987837338</v>
+        <v>12.20929279138417</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.31146252173882</v>
+        <v>15.8281942626059</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.4381332497636</v>
+        <v>17.93589456634515</v>
       </c>
       <c r="C15">
-        <v>6.267502287049305</v>
+        <v>9.941896518133559</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.54368239999211</v>
+        <v>38.45161756842946</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>37.29857600529884</v>
+        <v>42.39899071097351</v>
       </c>
       <c r="H15">
-        <v>15.79132107010239</v>
+        <v>12.18747634301403</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.28557958183019</v>
+        <v>15.74178168971866</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.2283653886003</v>
+        <v>17.32782856752042</v>
       </c>
       <c r="C16">
-        <v>6.133370710886362</v>
+        <v>9.647267028652241</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.88751594411908</v>
+        <v>37.0175146199535</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>37.09428110059179</v>
+        <v>41.32343702093555</v>
       </c>
       <c r="H16">
-        <v>15.79692515225143</v>
+        <v>12.06749441747337</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.13665976007965</v>
+        <v>15.24042672044089</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.09837582593741</v>
+        <v>16.94747121068815</v>
       </c>
       <c r="C17">
-        <v>6.049347089031314</v>
+        <v>9.463783704162767</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.47434369432803</v>
+        <v>36.12655979920282</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>36.9719549149282</v>
+        <v>40.67352599534465</v>
       </c>
       <c r="H17">
-        <v>15.80126449199447</v>
+        <v>11.99823096225299</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.04482177407302</v>
+        <v>14.92726085390644</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.02315853131434</v>
+        <v>16.72595469345975</v>
       </c>
       <c r="C18">
-        <v>6.0003864874778</v>
+        <v>9.3572184177252</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.23277842688593</v>
+        <v>35.60975997188378</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>36.90271550172602</v>
+        <v>40.30326808191638</v>
       </c>
       <c r="H18">
-        <v>15.80409069238675</v>
+        <v>11.95992801618983</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.991842934089611</v>
+        <v>14.74503883112412</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.99761662178247</v>
+        <v>16.6504768272856</v>
       </c>
       <c r="C19">
-        <v>5.983701288131293</v>
+        <v>9.320958125225182</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.15031434741686</v>
+        <v>35.4340125293253</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>36.87946595543535</v>
+        <v>40.17850830715233</v>
       </c>
       <c r="H19">
-        <v>15.80510423734048</v>
+        <v>11.94721747443649</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.973880395840954</v>
+        <v>14.68297789292298</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.1122607431609</v>
+        <v>16.98824386678115</v>
       </c>
       <c r="C20">
-        <v>6.058357151569787</v>
+        <v>9.483421956634764</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.51873199044467</v>
+        <v>36.2218481096869</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>36.98486124990664</v>
+        <v>40.74234057075024</v>
       </c>
       <c r="H20">
-        <v>15.80076835278094</v>
+        <v>12.00544392201167</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.05461470644889</v>
+        <v>14.96081411683702</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.49186581269206</v>
+        <v>18.09066367910356</v>
       </c>
       <c r="C21">
-        <v>6.301590162451205</v>
+        <v>10.01713945549883</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.70981262941732</v>
+        <v>38.81862359274132</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>37.3522354954206</v>
+        <v>42.67982154354768</v>
       </c>
       <c r="H21">
-        <v>15.79015363191715</v>
+        <v>12.21984574741541</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.32386287013237</v>
+        <v>15.86952403506395</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.7353625022803</v>
+        <v>18.78786117921061</v>
       </c>
       <c r="C22">
-        <v>6.454797470489389</v>
+        <v>10.35734157513782</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.45358406938259</v>
+        <v>40.4823877251963</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>37.60195134661809</v>
+        <v>43.97982630806788</v>
       </c>
       <c r="H22">
-        <v>15.78617724765146</v>
+        <v>12.37494988660954</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.49801589771837</v>
+        <v>16.44562154332174</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.6058510029802</v>
+        <v>18.41782599771521</v>
       </c>
       <c r="C23">
-        <v>6.373560435538284</v>
+        <v>10.17652635077693</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.05978013657664</v>
+        <v>39.59717849467867</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>37.46781134606844</v>
+        <v>43.28277691184699</v>
       </c>
       <c r="H23">
-        <v>15.7880276977632</v>
+        <v>12.29073108845566</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.40525319602538</v>
+        <v>16.1397290188785</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.10598487467604</v>
+        <v>16.96981941958623</v>
       </c>
       <c r="C24">
-        <v>6.054285738859056</v>
+        <v>9.474546867027399</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.49867658810662</v>
+        <v>36.17878257986102</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>36.97902290442926</v>
+        <v>40.71121897932156</v>
       </c>
       <c r="H24">
-        <v>15.80099162504433</v>
+        <v>12.00217823024719</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.05018787738265</v>
+        <v>14.94565148229282</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.54999226189833</v>
+        <v>15.30244033286241</v>
       </c>
       <c r="C25">
-        <v>5.685824452426333</v>
+        <v>8.677778429545405</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.68583023637704</v>
+        <v>32.32309321875427</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>36.49474301863735</v>
+        <v>38.07287208318058</v>
       </c>
       <c r="H25">
-        <v>15.82759042982474</v>
+        <v>11.74896455080442</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.661514900567237</v>
+        <v>13.5771234620985</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.97856591991223</v>
+        <v>14.32815938717473</v>
       </c>
       <c r="C2">
-        <v>8.054925309478614</v>
+        <v>8.263867365153203</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.31538761100697</v>
+        <v>11.38095163844535</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>25.883030895646</v>
       </c>
       <c r="G2">
-        <v>36.23988840485383</v>
+        <v>20.74171511468849</v>
       </c>
       <c r="H2">
-        <v>11.60590425578813</v>
+        <v>2.600939482193916</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.307566790484029</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.035391835692634</v>
       </c>
       <c r="K2">
-        <v>12.49640537451487</v>
+        <v>15.20964184791111</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.759223233213354</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.5320049645942</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.961894124112309</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.36625188229403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.0189615030262</v>
+        <v>13.40040959965637</v>
       </c>
       <c r="C3">
-        <v>7.609611281346957</v>
+        <v>8.205994886773984</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.16167173868864</v>
+        <v>11.03390424803142</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>25.36761573800895</v>
       </c>
       <c r="G3">
-        <v>35.06422782059585</v>
+        <v>20.79939967766964</v>
       </c>
       <c r="H3">
-        <v>11.5329087702553</v>
+        <v>2.792784761142887</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.440513701343056</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.112925547797753</v>
       </c>
       <c r="K3">
-        <v>11.71699296354836</v>
+        <v>15.34736921314751</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.660525940609852</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.95279358930531</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.611657748067113</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.47654119888364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39826787755352</v>
+        <v>12.79523695403664</v>
       </c>
       <c r="C4">
-        <v>7.32467584049785</v>
+        <v>8.169914257882601</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.77945586263947</v>
+        <v>10.81513823735676</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>25.05346781825146</v>
       </c>
       <c r="G4">
-        <v>34.37485378276448</v>
+        <v>20.84612061454583</v>
       </c>
       <c r="H4">
-        <v>11.49891129929582</v>
+        <v>2.915108102989949</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.525884149411836</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.162892635381727</v>
       </c>
       <c r="K4">
-        <v>11.21492872462785</v>
+        <v>15.43560422210411</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.598247932752478</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.58071135880161</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.390490685789043</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.54947853542358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.13731410618608</v>
+        <v>12.5375473422871</v>
       </c>
       <c r="C5">
-        <v>7.205674674372831</v>
+        <v>8.15601748622108</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.20075265204762</v>
+        <v>10.72363386007729</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>24.91922675524488</v>
       </c>
       <c r="G5">
-        <v>34.10205710710979</v>
+        <v>20.85811530519297</v>
       </c>
       <c r="H5">
-        <v>11.48763363192153</v>
+        <v>2.966352168044518</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.564194225089969</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.182303012730422</v>
       </c>
       <c r="K5">
-        <v>11.0043948333302</v>
+        <v>15.46840139422447</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.572986946898418</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.42651416262534</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.3009956713643</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.57659194308525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.09349606751954</v>
+        <v>12.49161614457356</v>
       </c>
       <c r="C6">
-        <v>7.185740712342666</v>
+        <v>8.154891734258985</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.10371593836239</v>
+        <v>10.70710806105538</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>24.8884837566049</v>
       </c>
       <c r="G6">
-        <v>34.05724904173498</v>
+        <v>20.84832464386432</v>
       </c>
       <c r="H6">
-        <v>11.48591241780002</v>
+        <v>2.975229293634722</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.573915831394636</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.183682889722673</v>
       </c>
       <c r="K6">
-        <v>10.96907664656352</v>
+        <v>15.46893458791082</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.569421979645535</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.40245692337774</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.288583356527367</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.57642326652877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.39478114432249</v>
+        <v>12.78486383102163</v>
       </c>
       <c r="C7">
-        <v>7.32308262104041</v>
+        <v>8.173019264921749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.77171428271009</v>
+        <v>10.8105275950304</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>25.02862092164977</v>
       </c>
       <c r="G7">
-        <v>34.37114189663354</v>
+        <v>20.8136778816534</v>
       </c>
       <c r="H7">
-        <v>11.49874896169653</v>
+        <v>2.916591788656801</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.535122119792117</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.158034105370431</v>
       </c>
       <c r="K7">
-        <v>11.21211346232906</v>
+        <v>15.42249163323999</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.599708075343595</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.58346157066087</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.396108444559811</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.53688870462955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.65417007800585</v>
+        <v>14.00716809272734</v>
       </c>
       <c r="C8">
-        <v>7.903769431367699</v>
+        <v>8.248622846442631</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.58495544648217</v>
+        <v>11.25824469462403</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>25.67531057860173</v>
       </c>
       <c r="G8">
-        <v>35.82775446887202</v>
+        <v>20.71625655428751</v>
       </c>
       <c r="H8">
-        <v>11.57840143794049</v>
+        <v>2.667136660519587</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.363711203474701</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.054908984123971</v>
       </c>
       <c r="K8">
-        <v>12.23251915886985</v>
+        <v>15.23851069638888</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.727970158809451</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.3418298298599</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.851059561706688</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.38610481949963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.87869994931973</v>
+        <v>16.13414183814028</v>
       </c>
       <c r="C9">
-        <v>8.951678245822285</v>
+        <v>8.386699442958397</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.64664236589003</v>
+        <v>12.09298783572414</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>26.99535300955446</v>
       </c>
       <c r="G9">
-        <v>38.94424141967902</v>
+        <v>20.67817461669854</v>
       </c>
       <c r="H9">
-        <v>11.82709793064761</v>
+        <v>2.212013333060451</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.042679191106971</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.880895878973821</v>
       </c>
       <c r="K9">
-        <v>14.04924239692341</v>
+        <v>14.93167144816992</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.96261410822904</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.6868436858141</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.679328031447231</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.15669636034766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37086171458998</v>
+        <v>17.5081305010333</v>
       </c>
       <c r="C10">
-        <v>9.66806581678925</v>
+        <v>8.501066956461244</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.11860668750455</v>
+        <v>12.53308109372601</v>
       </c>
       <c r="F10">
-        <v>37.72874519847226</v>
+        <v>27.7715178584384</v>
       </c>
       <c r="G10">
-        <v>41.3980838477836</v>
+        <v>20.56829148276615</v>
       </c>
       <c r="H10">
-        <v>12.07561023052771</v>
+        <v>1.928653380110147</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.834105583559358</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.742829995775523</v>
       </c>
       <c r="K10">
-        <v>15.2758796850608</v>
+        <v>14.66945818560791</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.147346532964152</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.60252566166888</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.15342210284467</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.95884521879723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.0206052711024</v>
+        <v>17.95082988804454</v>
       </c>
       <c r="C11">
-        <v>9.983067116401852</v>
+        <v>8.70280672085941</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.65239097704553</v>
+        <v>11.56286399526823</v>
       </c>
       <c r="F11">
-        <v>39.14805722232853</v>
+        <v>26.5146354050032</v>
       </c>
       <c r="G11">
-        <v>42.55234716067937</v>
+        <v>19.3537551838641</v>
       </c>
       <c r="H11">
-        <v>12.20510087401101</v>
+        <v>2.8782701880837</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.795320225839681</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.503346265603987</v>
       </c>
       <c r="K11">
-        <v>15.81169306226335</v>
+        <v>14.11911517335444</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.42486700663796</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.10171194741031</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.507300807652349</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.40970747819731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.26263649830194</v>
+        <v>18.05333827441257</v>
       </c>
       <c r="C12">
-        <v>10.10086495193378</v>
+        <v>8.879012623555605</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.22740026903528</v>
+        <v>10.68657239608597</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>25.30831318924105</v>
       </c>
       <c r="G12">
-        <v>42.99519478829433</v>
+        <v>18.4010945723871</v>
       </c>
       <c r="H12">
-        <v>12.25668938176364</v>
+        <v>4.230556850221228</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.786580474191813</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.339699669338502</v>
       </c>
       <c r="K12">
-        <v>16.01152805831502</v>
+        <v>13.74745987199546</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.641542261942448</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.33227460180146</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.854743989284861</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.01129144729502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.21068637821564</v>
+        <v>17.89604938964303</v>
       </c>
       <c r="C13">
-        <v>10.07555972682907</v>
+        <v>9.047487271059694</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.10380645852985</v>
+        <v>9.823857592667437</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>24.02184785109377</v>
       </c>
       <c r="G13">
-        <v>42.89955800510727</v>
+        <v>17.54638139619107</v>
       </c>
       <c r="H13">
-        <v>12.24546216535143</v>
+        <v>5.640719933501861</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.815210434275834</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.21741501752536</v>
       </c>
       <c r="K13">
-        <v>15.9686241588585</v>
+        <v>13.47351710138719</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.825885856717</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.38213956802513</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.155842614769288</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.68732915941517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04059673336518</v>
+        <v>17.66459588839384</v>
       </c>
       <c r="C14">
-        <v>9.992787684257255</v>
+        <v>9.167079754805568</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.6998088608547</v>
+        <v>9.237977252984017</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>23.0783653457349</v>
       </c>
       <c r="G14">
-        <v>42.58866316451938</v>
+        <v>16.99547240606151</v>
       </c>
       <c r="H14">
-        <v>12.20929279138417</v>
+        <v>6.644087385770852</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.855026624993312</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.15079412572449</v>
       </c>
       <c r="K14">
-        <v>15.8281942626059</v>
+        <v>13.32902558214269</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.943256423391642</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.33715961120332</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.645716858038313</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.49565502369741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.93589456634515</v>
+        <v>17.54953073563509</v>
       </c>
       <c r="C15">
-        <v>9.941896518133559</v>
+        <v>9.193734570419783</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.45161756842946</v>
+        <v>9.09389790957786</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>22.82614780012906</v>
       </c>
       <c r="G15">
-        <v>42.39899071097351</v>
+        <v>16.87411121277475</v>
       </c>
       <c r="H15">
-        <v>12.18747634301403</v>
+        <v>6.878322484346958</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.877422853410401</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.141860903855925</v>
       </c>
       <c r="K15">
-        <v>15.74178168971866</v>
+        <v>13.30958273236614</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.963175537912248</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.28872045343153</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.512861883780786</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.46117184262551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.32782856752042</v>
+        <v>17.00622211185505</v>
       </c>
       <c r="C16">
-        <v>9.647267028652241</v>
+        <v>9.108589769919156</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.0175146199535</v>
+        <v>9.055722028020636</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>22.7109987406937</v>
       </c>
       <c r="G16">
-        <v>41.32343702093555</v>
+        <v>17.08206312700795</v>
       </c>
       <c r="H16">
-        <v>12.06749441747337</v>
+        <v>6.684287192256422</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.966249298036554</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.22378010830942</v>
       </c>
       <c r="K16">
-        <v>15.24042672044089</v>
+        <v>13.47462779177633</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.850195458621632</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.90840229499856</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.426772394241531</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.60829977802014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.94747121068815</v>
+        <v>16.70907874698175</v>
       </c>
       <c r="C17">
-        <v>9.463783704162767</v>
+        <v>8.977180766233543</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.12655979920282</v>
+        <v>9.333774440979706</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>23.13039199100622</v>
       </c>
       <c r="G17">
-        <v>40.67352599534465</v>
+        <v>17.52705627561541</v>
       </c>
       <c r="H17">
-        <v>11.99823096225299</v>
+        <v>5.973014098819047</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.01401184990474</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.321219705921095</v>
       </c>
       <c r="K17">
-        <v>14.92726085390644</v>
+        <v>13.67403696961055</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.697757773865274</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.63593581275028</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.637429648193773</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.82012519619363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.72595469345975</v>
+        <v>16.6034539922738</v>
       </c>
       <c r="C18">
-        <v>9.3572184177252</v>
+        <v>8.798591653174046</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.60975997188378</v>
+        <v>9.955601442827405</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>24.07558784545829</v>
       </c>
       <c r="G18">
-        <v>40.30326808191638</v>
+        <v>18.25903479505916</v>
       </c>
       <c r="H18">
-        <v>11.95992801618983</v>
+        <v>4.768960462386875</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.020232708798663</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.448339512564155</v>
       </c>
       <c r="K18">
-        <v>14.74503883112412</v>
+        <v>13.94580312682281</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.501407292040638</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.42719652984583</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.132243027646309</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.12551111223853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.6504768272856</v>
+        <v>16.65140992200603</v>
       </c>
       <c r="C19">
-        <v>9.320958125225182</v>
+        <v>8.635150652073179</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.4340125293253</v>
+        <v>10.84656105756134</v>
       </c>
       <c r="F19">
-        <v>36.1517249415007</v>
+        <v>25.34096595305927</v>
       </c>
       <c r="G19">
-        <v>40.17850830715233</v>
+        <v>19.13829169321383</v>
       </c>
       <c r="H19">
-        <v>11.94721747443649</v>
+        <v>3.374933030537552</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.009446341794388</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.585903275638499</v>
       </c>
       <c r="K19">
-        <v>14.68297789292298</v>
+        <v>14.25629347851475</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.304848837637393</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.29697336797138</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.835702224871813</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.47395330042609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.98824386678115</v>
+        <v>17.14114786530358</v>
       </c>
       <c r="C20">
-        <v>9.483421956634764</v>
+        <v>8.48445059261126</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.2218481096869</v>
+        <v>12.40420586963344</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>27.49517387096728</v>
       </c>
       <c r="G20">
-        <v>40.74234057075024</v>
+        <v>20.48778357465257</v>
       </c>
       <c r="H20">
-        <v>12.00544392201167</v>
+        <v>2.003077713154584</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.91773089509925</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.76180827799509</v>
       </c>
       <c r="K20">
-        <v>14.96081411683702</v>
+        <v>14.69347300844458</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.106215679163687</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.38121941901415</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.04431436879978</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.96681139752148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09066367910356</v>
+        <v>18.17209757916203</v>
       </c>
       <c r="C21">
-        <v>10.01713945549883</v>
+        <v>8.549637817929352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.81862359274132</v>
+        <v>12.94558518122044</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>28.38770376840103</v>
       </c>
       <c r="G21">
-        <v>42.67982154354768</v>
+        <v>20.65130249178609</v>
       </c>
       <c r="H21">
-        <v>12.21984574741541</v>
+        <v>1.746841925865142</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.751077769244568</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.694337367401184</v>
       </c>
       <c r="K21">
-        <v>15.86952403506395</v>
+        <v>14.58403840948729</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.212875144885918</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.03578701414095</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.54791235420812</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.91398840640112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.78786117921061</v>
+        <v>18.81338876884742</v>
       </c>
       <c r="C22">
-        <v>10.35734157513782</v>
+        <v>8.593512392970949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.4823877251963</v>
+        <v>13.22496875990817</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>28.9003435746045</v>
       </c>
       <c r="G22">
-        <v>43.97982630806788</v>
+        <v>20.74589781859889</v>
       </c>
       <c r="H22">
-        <v>12.37494988660954</v>
+        <v>1.596220250681886</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.634979292585616</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.649012748810076</v>
       </c>
       <c r="K22">
-        <v>16.44562154332174</v>
+        <v>14.50873052293765</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.288791780207113</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.4481918395967</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.81053457778857</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.87574893185489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.41782599771521</v>
+        <v>18.4798055492641</v>
       </c>
       <c r="C23">
-        <v>10.17652635077693</v>
+        <v>8.565273940873871</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.59717849467867</v>
+        <v>13.07981014261562</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>28.6504791417756</v>
       </c>
       <c r="G23">
-        <v>43.28277691184699</v>
+        <v>20.73123554956963</v>
       </c>
       <c r="H23">
-        <v>12.29073108845566</v>
+        <v>1.675596486714953</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.684750608907208</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.678874346497189</v>
       </c>
       <c r="K23">
-        <v>16.1397290188785</v>
+        <v>14.56431932515405</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.246223034389254</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.22501085713562</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.66459875867602</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.91061904372189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.96981941958623</v>
+        <v>17.1465300557666</v>
       </c>
       <c r="C24">
-        <v>9.474546867027399</v>
+        <v>8.465674711325102</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.17878257986102</v>
+        <v>12.51033851136128</v>
       </c>
       <c r="F24">
-        <v>36.85121910575441</v>
+        <v>27.66372933796167</v>
       </c>
       <c r="G24">
-        <v>40.71121897932156</v>
+        <v>20.64681388298472</v>
       </c>
       <c r="H24">
-        <v>12.00217823024719</v>
+        <v>1.984288105281515</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.89866343442499</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.787843370648316</v>
       </c>
       <c r="K24">
-        <v>14.94565148229282</v>
+        <v>14.75841428061613</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.085106598877696</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.3541377132998</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.10645571078561</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.03194729656895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.30244033286241</v>
+        <v>15.57823565133225</v>
       </c>
       <c r="C25">
-        <v>8.677778429545405</v>
+        <v>8.356510124175282</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.32309321875427</v>
+        <v>11.86741152873777</v>
       </c>
       <c r="F25">
-        <v>33.19272459126707</v>
+        <v>26.59903414643638</v>
       </c>
       <c r="G25">
-        <v>38.07287208318058</v>
+        <v>20.61944783059479</v>
       </c>
       <c r="H25">
-        <v>11.74896455080442</v>
+        <v>2.332657524262694</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.142417240890015</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.916751245451779</v>
       </c>
       <c r="K25">
-        <v>13.5771234620985</v>
+        <v>14.98713418069124</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.903991634164236</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.34552371050023</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.472370458131627</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.19066441105635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.32815938717473</v>
+        <v>14.3132939587654</v>
       </c>
       <c r="C2">
-        <v>8.263867365153203</v>
+        <v>7.847752855306628</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.38095163844535</v>
+        <v>11.33084857501728</v>
       </c>
       <c r="F2">
-        <v>25.883030895646</v>
+        <v>25.4410760193635</v>
       </c>
       <c r="G2">
-        <v>20.74171511468849</v>
+        <v>19.44317431252145</v>
       </c>
       <c r="H2">
-        <v>2.600939482193916</v>
+        <v>2.502988050702258</v>
       </c>
       <c r="I2">
-        <v>3.307566790484029</v>
+        <v>3.170541940430198</v>
       </c>
       <c r="J2">
-        <v>9.035391835692634</v>
+        <v>9.180090143699369</v>
       </c>
       <c r="K2">
-        <v>15.20964184791111</v>
+        <v>14.70558905482527</v>
       </c>
       <c r="L2">
-        <v>5.759223233213354</v>
+        <v>12.01218375948693</v>
       </c>
       <c r="M2">
-        <v>11.5320049645942</v>
+        <v>9.698062376367387</v>
       </c>
       <c r="N2">
-        <v>8.961894124112309</v>
+        <v>5.731472941473359</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.6066215065267</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.141084323345263</v>
       </c>
       <c r="Q2">
-        <v>14.36625188229403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.99864829443746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.40040959965637</v>
+        <v>13.40754070145602</v>
       </c>
       <c r="C3">
-        <v>8.205994886773984</v>
+        <v>7.752674277739133</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.03390424803142</v>
+        <v>10.99463846405644</v>
       </c>
       <c r="F3">
-        <v>25.36761573800895</v>
+        <v>24.96866548159838</v>
       </c>
       <c r="G3">
-        <v>20.79939967766964</v>
+        <v>19.59460044748482</v>
       </c>
       <c r="H3">
-        <v>2.792784761142887</v>
+        <v>2.685182788717286</v>
       </c>
       <c r="I3">
-        <v>3.440513701343056</v>
+        <v>3.289801129650255</v>
       </c>
       <c r="J3">
-        <v>9.112925547797753</v>
+        <v>9.232295221167188</v>
       </c>
       <c r="K3">
-        <v>15.34736921314751</v>
+        <v>14.85718625415645</v>
       </c>
       <c r="L3">
-        <v>5.660525940609852</v>
+        <v>12.17851090063079</v>
       </c>
       <c r="M3">
-        <v>10.95279358930531</v>
+        <v>9.798946202442552</v>
       </c>
       <c r="N3">
-        <v>8.611657748067113</v>
+        <v>5.622100836524439</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.0176337347908</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.783933500278103</v>
       </c>
       <c r="Q3">
-        <v>14.47654119888364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.1260378775373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.79523695403664</v>
+        <v>12.81695314173827</v>
       </c>
       <c r="C4">
-        <v>8.169914257882601</v>
+        <v>7.69408951531106</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.81513823735676</v>
+        <v>10.78275583011822</v>
       </c>
       <c r="F4">
-        <v>25.05346781825146</v>
+        <v>24.68035463563887</v>
       </c>
       <c r="G4">
-        <v>20.84612061454583</v>
+        <v>19.69936208183991</v>
       </c>
       <c r="H4">
-        <v>2.915108102989949</v>
+        <v>2.801387049343164</v>
       </c>
       <c r="I4">
-        <v>3.525884149411836</v>
+        <v>3.366669344735504</v>
       </c>
       <c r="J4">
-        <v>9.162892635381727</v>
+        <v>9.265451814541173</v>
       </c>
       <c r="K4">
-        <v>15.43560422210411</v>
+        <v>14.95300713611988</v>
       </c>
       <c r="L4">
-        <v>5.598247932752478</v>
+        <v>12.28402196595182</v>
       </c>
       <c r="M4">
-        <v>10.58071135880161</v>
+        <v>9.876380924451247</v>
       </c>
       <c r="N4">
-        <v>8.390490685789043</v>
+        <v>5.553251592378797</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.63940931151554</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.558845973838373</v>
       </c>
       <c r="Q4">
-        <v>14.54947853542358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.2085188459096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.5375473422871</v>
+        <v>12.56552163133986</v>
       </c>
       <c r="C5">
-        <v>8.15601748622108</v>
+        <v>7.671582975632216</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.72363386007729</v>
+        <v>10.69412910417485</v>
       </c>
       <c r="F5">
-        <v>24.91922675524488</v>
+        <v>24.55654863424704</v>
       </c>
       <c r="G5">
-        <v>20.85811530519297</v>
+        <v>19.73521474369762</v>
       </c>
       <c r="H5">
-        <v>2.966352168044518</v>
+        <v>2.850083066666643</v>
       </c>
       <c r="I5">
-        <v>3.564194225089969</v>
+        <v>3.401941554120774</v>
       </c>
       <c r="J5">
-        <v>9.182303012730422</v>
+        <v>9.277697809658102</v>
       </c>
       <c r="K5">
-        <v>15.46840139422447</v>
+        <v>14.98881233220438</v>
       </c>
       <c r="L5">
-        <v>5.572986946898418</v>
+        <v>12.32382660004241</v>
       </c>
       <c r="M5">
-        <v>10.42651416262534</v>
+        <v>9.909930836315112</v>
       </c>
       <c r="N5">
-        <v>8.3009956713643</v>
+        <v>5.525338880985147</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.482675775948</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.467804537734342</v>
       </c>
       <c r="Q5">
-        <v>14.57659194308525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.2393787736931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.49161614457356</v>
+        <v>12.52068365406097</v>
       </c>
       <c r="C6">
-        <v>8.154891734258985</v>
+        <v>7.669613412800305</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.70710806105538</v>
+        <v>10.67810718232633</v>
       </c>
       <c r="F6">
-        <v>24.8884837566049</v>
+        <v>24.52762207539716</v>
       </c>
       <c r="G6">
-        <v>20.84832464386432</v>
+        <v>19.72954253015487</v>
       </c>
       <c r="H6">
-        <v>2.975229293634722</v>
+        <v>2.858528288062919</v>
       </c>
       <c r="I6">
-        <v>3.573915831394636</v>
+        <v>3.411753060688239</v>
       </c>
       <c r="J6">
-        <v>9.183682889722673</v>
+        <v>9.277864663054626</v>
       </c>
       <c r="K6">
-        <v>15.46893458791082</v>
+        <v>14.99000815467468</v>
       </c>
       <c r="L6">
-        <v>5.569421979645535</v>
+        <v>12.32555708321421</v>
       </c>
       <c r="M6">
-        <v>10.40245692337774</v>
+        <v>9.91348705012444</v>
       </c>
       <c r="N6">
-        <v>8.288583356527367</v>
+        <v>5.521365757986281</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.45818522752638</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.455089357385013</v>
       </c>
       <c r="Q6">
-        <v>14.57642326652877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.23992975940116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.78486383102163</v>
+        <v>12.80789889542701</v>
       </c>
       <c r="C7">
-        <v>8.173019264921749</v>
+        <v>7.696750606761939</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.8105275950304</v>
+        <v>10.78161574573437</v>
       </c>
       <c r="F7">
-        <v>25.02862092164977</v>
+        <v>24.64609486956586</v>
       </c>
       <c r="G7">
-        <v>20.8136778816534</v>
+        <v>19.7237096819882</v>
       </c>
       <c r="H7">
-        <v>2.916591788656801</v>
+        <v>2.80319208188591</v>
       </c>
       <c r="I7">
-        <v>3.535122119792117</v>
+        <v>3.377855683761577</v>
       </c>
       <c r="J7">
-        <v>9.158034105370431</v>
+        <v>9.235736886725928</v>
       </c>
       <c r="K7">
-        <v>15.42249163323999</v>
+        <v>14.93537604534084</v>
       </c>
       <c r="L7">
-        <v>5.599708075343595</v>
+        <v>12.26640984926593</v>
       </c>
       <c r="M7">
-        <v>10.58346157066087</v>
+        <v>9.867742558815737</v>
       </c>
       <c r="N7">
-        <v>8.396108444559811</v>
+        <v>5.555608723208629</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.64065229749629</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.565821981947019</v>
       </c>
       <c r="Q7">
-        <v>14.53688870462955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.18887237892379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.00716809272734</v>
+        <v>14.00329507538398</v>
       </c>
       <c r="C8">
-        <v>8.248622846442631</v>
+        <v>7.815531209832725</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.25824469462403</v>
+        <v>11.22279750653892</v>
       </c>
       <c r="F8">
-        <v>25.67531057860173</v>
+        <v>25.21700157930099</v>
       </c>
       <c r="G8">
-        <v>20.71625655428751</v>
+        <v>19.63942863843739</v>
       </c>
       <c r="H8">
-        <v>2.667136660519587</v>
+        <v>2.567008023414897</v>
       </c>
       <c r="I8">
-        <v>3.363711203474701</v>
+        <v>3.225279294604419</v>
       </c>
       <c r="J8">
-        <v>9.054908984123971</v>
+        <v>9.111193645608964</v>
       </c>
       <c r="K8">
-        <v>15.23851069638888</v>
+        <v>14.72373769257191</v>
       </c>
       <c r="L8">
-        <v>5.727970158809451</v>
+        <v>12.03825604754146</v>
       </c>
       <c r="M8">
-        <v>11.3418298298599</v>
+        <v>9.709182373555876</v>
       </c>
       <c r="N8">
-        <v>8.851059561706688</v>
+        <v>5.69954340121607</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.40862446677545</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9.032463507027597</v>
       </c>
       <c r="Q8">
-        <v>14.38610481949963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.00061899989312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.13414183814028</v>
+        <v>16.08123212130621</v>
       </c>
       <c r="C9">
-        <v>8.386699442958397</v>
+        <v>8.044515975849475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.09298783572414</v>
+        <v>12.03407487577529</v>
       </c>
       <c r="F9">
-        <v>26.99535300955446</v>
+        <v>26.42082394436995</v>
       </c>
       <c r="G9">
-        <v>20.67817461669854</v>
+        <v>19.42572492597647</v>
       </c>
       <c r="H9">
-        <v>2.212013333060451</v>
+        <v>2.135113477454913</v>
       </c>
       <c r="I9">
-        <v>3.042679191106971</v>
+        <v>2.936396061861577</v>
       </c>
       <c r="J9">
-        <v>8.880895878973821</v>
+        <v>8.971123086338162</v>
       </c>
       <c r="K9">
-        <v>14.93167144816992</v>
+        <v>14.37194644471638</v>
       </c>
       <c r="L9">
-        <v>5.96261410822904</v>
+        <v>11.6563620689788</v>
       </c>
       <c r="M9">
-        <v>12.6868436858141</v>
+        <v>9.547700014328656</v>
       </c>
       <c r="N9">
-        <v>9.679328031447231</v>
+        <v>5.961299081947464</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.77630824700833</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.88031914315339</v>
       </c>
       <c r="Q9">
-        <v>14.15669636034766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.71586667596797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.5081305010333</v>
+        <v>17.43082137900306</v>
       </c>
       <c r="C10">
-        <v>8.501066956461244</v>
+        <v>8.220764635279618</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.53308109372601</v>
+        <v>12.47672781470295</v>
       </c>
       <c r="F10">
-        <v>27.7715178584384</v>
+        <v>27.06951524166337</v>
       </c>
       <c r="G10">
-        <v>20.56829148276615</v>
+        <v>19.54677614269202</v>
       </c>
       <c r="H10">
-        <v>1.928653380110147</v>
+        <v>1.869614411038094</v>
       </c>
       <c r="I10">
-        <v>2.834105583559358</v>
+        <v>2.753510001981752</v>
       </c>
       <c r="J10">
-        <v>8.742829995775523</v>
+        <v>8.725860743813868</v>
       </c>
       <c r="K10">
-        <v>14.66945818560791</v>
+        <v>14.05237830351524</v>
       </c>
       <c r="L10">
-        <v>6.147346532964152</v>
+        <v>11.33938762791871</v>
       </c>
       <c r="M10">
-        <v>13.60252566166888</v>
+        <v>9.445663062953416</v>
       </c>
       <c r="N10">
-        <v>10.15342210284467</v>
+        <v>6.171463117010815</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.69936291427375</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.37459139056047</v>
       </c>
       <c r="Q10">
-        <v>13.95884521879723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.43674887353376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.95082988804454</v>
+        <v>17.89020736569879</v>
       </c>
       <c r="C11">
-        <v>8.70280672085941</v>
+        <v>8.458997928031712</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.56286399526823</v>
+        <v>11.54369500456013</v>
       </c>
       <c r="F11">
-        <v>26.5146354050032</v>
+        <v>25.74788849443707</v>
       </c>
       <c r="G11">
-        <v>19.3537551838641</v>
+        <v>19.11321676381613</v>
       </c>
       <c r="H11">
-        <v>2.8782701880837</v>
+        <v>2.843846153600105</v>
       </c>
       <c r="I11">
-        <v>2.795320225839681</v>
+        <v>2.728471592001149</v>
       </c>
       <c r="J11">
-        <v>8.503346265603987</v>
+        <v>8.32645653923344</v>
       </c>
       <c r="K11">
-        <v>14.11911517335444</v>
+        <v>13.51217774856847</v>
       </c>
       <c r="L11">
-        <v>6.42486700663796</v>
+        <v>10.93881576630586</v>
       </c>
       <c r="M11">
-        <v>14.10171194741031</v>
+        <v>9.061582081646961</v>
       </c>
       <c r="N11">
-        <v>9.507300807652349</v>
+        <v>6.47642161522229</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.17789486935577</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.730115859438783</v>
       </c>
       <c r="Q11">
-        <v>13.40970747819731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.84725689016669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.05333827441257</v>
+        <v>18.00869216220296</v>
       </c>
       <c r="C12">
-        <v>8.879012623555605</v>
+        <v>8.645208044126617</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.68657239608597</v>
+        <v>10.68422522730613</v>
       </c>
       <c r="F12">
-        <v>25.30831318924105</v>
+        <v>24.54685150349516</v>
       </c>
       <c r="G12">
-        <v>18.4010945723871</v>
+        <v>18.53336515593817</v>
       </c>
       <c r="H12">
-        <v>4.230556850221228</v>
+        <v>4.207685687511257</v>
       </c>
       <c r="I12">
-        <v>2.786580474191813</v>
+        <v>2.722182287732418</v>
       </c>
       <c r="J12">
-        <v>8.339699669338502</v>
+        <v>8.160113683380171</v>
       </c>
       <c r="K12">
-        <v>13.74745987199546</v>
+        <v>13.1815578466636</v>
       </c>
       <c r="L12">
-        <v>6.641542261942448</v>
+        <v>10.71899690241124</v>
       </c>
       <c r="M12">
-        <v>14.33227460180146</v>
+        <v>8.791083344730142</v>
       </c>
       <c r="N12">
-        <v>8.854743989284861</v>
+        <v>6.706599739476882</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.39299342791232</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.069574406185913</v>
       </c>
       <c r="Q12">
-        <v>13.01129144729502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.46280860826154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.89604938964303</v>
+        <v>17.86601843030628</v>
       </c>
       <c r="C13">
-        <v>9.047487271059694</v>
+        <v>8.817062902727354</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.823857592667437</v>
+        <v>9.818806902343729</v>
       </c>
       <c r="F13">
-        <v>24.02184785109377</v>
+        <v>23.34044656723592</v>
       </c>
       <c r="G13">
-        <v>17.54638139619107</v>
+        <v>17.60637892937555</v>
       </c>
       <c r="H13">
-        <v>5.640719933501861</v>
+        <v>5.622129304323646</v>
       </c>
       <c r="I13">
-        <v>2.815210434275834</v>
+        <v>2.746914399938894</v>
       </c>
       <c r="J13">
-        <v>8.21741501752536</v>
+        <v>8.124079906710843</v>
       </c>
       <c r="K13">
-        <v>13.47351710138719</v>
+        <v>12.97769115172992</v>
       </c>
       <c r="L13">
-        <v>6.825885856717</v>
+        <v>10.59563627685866</v>
       </c>
       <c r="M13">
-        <v>14.38213956802513</v>
+        <v>8.592945407798251</v>
       </c>
       <c r="N13">
-        <v>8.155842614769288</v>
+        <v>6.889689651126653</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.4327679312272</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.352105255498437</v>
       </c>
       <c r="Q13">
-        <v>12.68732915941517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.20643150251054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.66459588839384</v>
+        <v>17.64448808014475</v>
       </c>
       <c r="C14">
-        <v>9.167079754805568</v>
+        <v>8.937049172088349</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.237977252984017</v>
+        <v>9.224194910265535</v>
       </c>
       <c r="F14">
-        <v>23.0783653457349</v>
+        <v>22.48445626040906</v>
       </c>
       <c r="G14">
-        <v>16.99547240606151</v>
+        <v>16.82595988893687</v>
       </c>
       <c r="H14">
-        <v>6.644087385770852</v>
+        <v>6.626718665365942</v>
       </c>
       <c r="I14">
-        <v>2.855026624993312</v>
+        <v>2.781737157491396</v>
       </c>
       <c r="J14">
-        <v>8.15079412572449</v>
+        <v>8.140552409412422</v>
       </c>
       <c r="K14">
-        <v>13.32902558214269</v>
+        <v>12.88933647895732</v>
       </c>
       <c r="L14">
-        <v>6.943256423391642</v>
+        <v>10.54505634388754</v>
       </c>
       <c r="M14">
-        <v>14.33715961120332</v>
+        <v>8.490678363747966</v>
       </c>
       <c r="N14">
-        <v>7.645716858038313</v>
+        <v>6.998556615311352</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.38290607981962</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.824830468212262</v>
       </c>
       <c r="Q14">
-        <v>12.49565502369741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.08070097583264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.54953073563509</v>
+        <v>17.53178501381517</v>
       </c>
       <c r="C15">
-        <v>9.193734570419783</v>
+        <v>8.964339474764341</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.09389790957786</v>
+        <v>9.075735666695554</v>
       </c>
       <c r="F15">
-        <v>22.82614780012906</v>
+        <v>22.26687370719805</v>
       </c>
       <c r="G15">
-        <v>16.87411121277475</v>
+        <v>16.57880261476458</v>
       </c>
       <c r="H15">
-        <v>6.878322484346958</v>
+        <v>6.860780226860422</v>
       </c>
       <c r="I15">
-        <v>2.877422853410401</v>
+        <v>2.802352085306111</v>
       </c>
       <c r="J15">
-        <v>8.141860903855925</v>
+        <v>8.162876653237845</v>
       </c>
       <c r="K15">
-        <v>13.30958273236614</v>
+        <v>12.88699680099603</v>
       </c>
       <c r="L15">
-        <v>6.963175537912248</v>
+        <v>10.54449457679658</v>
       </c>
       <c r="M15">
-        <v>14.28872045343153</v>
+        <v>8.478522104561295</v>
       </c>
       <c r="N15">
-        <v>7.512861883780786</v>
+        <v>7.0133942153906</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.33426076225083</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.686098912794814</v>
       </c>
       <c r="Q15">
-        <v>12.46117184262551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.07021269596424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.00622211185505</v>
+        <v>16.98866624306421</v>
       </c>
       <c r="C16">
-        <v>9.108589769919156</v>
+        <v>8.879329712721921</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.055722028020636</v>
+        <v>9.019220241583898</v>
       </c>
       <c r="F16">
-        <v>22.7109987406937</v>
+        <v>22.26235846397275</v>
       </c>
       <c r="G16">
-        <v>17.08206312700795</v>
+        <v>16.23945915065654</v>
       </c>
       <c r="H16">
-        <v>6.684287192256422</v>
+        <v>6.662204811420393</v>
       </c>
       <c r="I16">
-        <v>2.966249298036554</v>
+        <v>2.879379897604982</v>
       </c>
       <c r="J16">
-        <v>8.22378010830942</v>
+        <v>8.359931110914843</v>
       </c>
       <c r="K16">
-        <v>13.47462779177633</v>
+        <v>13.08176756346793</v>
       </c>
       <c r="L16">
-        <v>6.850195458621632</v>
+        <v>10.66971119454762</v>
       </c>
       <c r="M16">
-        <v>13.90840229499856</v>
+        <v>8.609562654013565</v>
       </c>
       <c r="N16">
-        <v>7.426772394241531</v>
+        <v>6.876289220284707</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.96227891283605</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.585895953497074</v>
       </c>
       <c r="Q16">
-        <v>12.60829977802014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.28391444008794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.70907874698175</v>
+        <v>16.68757132051901</v>
       </c>
       <c r="C17">
-        <v>8.977180766233543</v>
+        <v>8.742163031638857</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.333774440979706</v>
+        <v>9.288460061067919</v>
       </c>
       <c r="F17">
-        <v>23.13039199100622</v>
+        <v>22.70925118259915</v>
       </c>
       <c r="G17">
-        <v>17.52705627561541</v>
+        <v>16.4537225394469</v>
       </c>
       <c r="H17">
-        <v>5.973014098819047</v>
+        <v>5.945806060151125</v>
       </c>
       <c r="I17">
-        <v>3.01401184990474</v>
+        <v>2.921266592235141</v>
       </c>
       <c r="J17">
-        <v>8.321219705921095</v>
+        <v>8.508173137737694</v>
       </c>
       <c r="K17">
-        <v>13.67403696961055</v>
+        <v>13.27594980374236</v>
       </c>
       <c r="L17">
-        <v>6.697757773865274</v>
+        <v>10.80262732404047</v>
       </c>
       <c r="M17">
-        <v>13.63593581275028</v>
+        <v>8.754044370603468</v>
       </c>
       <c r="N17">
-        <v>7.637429648193773</v>
+        <v>6.713267022275011</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.69728543315233</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.795851846041595</v>
       </c>
       <c r="Q17">
-        <v>12.82012519619363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.50838491313501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6034539922738</v>
+        <v>16.57184511039451</v>
       </c>
       <c r="C18">
-        <v>8.798591653174046</v>
+        <v>8.553068320972949</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.955601442827405</v>
+        <v>9.902491277437688</v>
       </c>
       <c r="F18">
-        <v>24.07558784545829</v>
+        <v>23.63202960910286</v>
       </c>
       <c r="G18">
-        <v>18.25903479505916</v>
+        <v>17.0493951310151</v>
       </c>
       <c r="H18">
-        <v>4.768960462386875</v>
+        <v>4.733961111227549</v>
       </c>
       <c r="I18">
-        <v>3.020232708798663</v>
+        <v>2.923857974073936</v>
       </c>
       <c r="J18">
-        <v>8.448339512564155</v>
+        <v>8.647483345321689</v>
       </c>
       <c r="K18">
-        <v>13.94580312682281</v>
+        <v>13.5174599905405</v>
       </c>
       <c r="L18">
-        <v>6.501407292040638</v>
+        <v>10.97751314719709</v>
       </c>
       <c r="M18">
-        <v>13.42719652984583</v>
+        <v>8.940812377640992</v>
       </c>
       <c r="N18">
-        <v>8.132243027646309</v>
+        <v>6.512973267293293</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.49831512956224</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.298838661106823</v>
       </c>
       <c r="Q18">
-        <v>13.12551111223853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.79458708862571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.65140992200603</v>
+        <v>16.6049452228058</v>
       </c>
       <c r="C19">
-        <v>8.635150652073179</v>
+        <v>8.375858239451453</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.84656105756134</v>
+        <v>10.78522142596814</v>
       </c>
       <c r="F19">
-        <v>25.34096595305927</v>
+        <v>24.84377488273659</v>
       </c>
       <c r="G19">
-        <v>19.13829169321383</v>
+        <v>17.8269850139887</v>
       </c>
       <c r="H19">
-        <v>3.374933030537552</v>
+        <v>3.327201272387202</v>
       </c>
       <c r="I19">
-        <v>3.009446341794388</v>
+        <v>2.915307488007713</v>
       </c>
       <c r="J19">
-        <v>8.585903275638499</v>
+        <v>8.774294171263538</v>
       </c>
       <c r="K19">
-        <v>14.25629347851475</v>
+        <v>13.78039039434436</v>
       </c>
       <c r="L19">
-        <v>6.304848837637393</v>
+        <v>11.17288314600442</v>
       </c>
       <c r="M19">
-        <v>13.29697336797138</v>
+        <v>9.148129159677282</v>
       </c>
       <c r="N19">
-        <v>8.835702224871813</v>
+        <v>6.315341178943132</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.37961014956984</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>9.016281225308623</v>
       </c>
       <c r="Q19">
-        <v>13.47395330042609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.10370719617213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.14114786530358</v>
+        <v>17.06717481495188</v>
       </c>
       <c r="C20">
-        <v>8.48445059261126</v>
+        <v>8.201858947278929</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.40420586963344</v>
+        <v>12.33655370530742</v>
       </c>
       <c r="F20">
-        <v>27.49517387096728</v>
+        <v>26.8594377036958</v>
       </c>
       <c r="G20">
-        <v>20.48778357465257</v>
+        <v>19.19480841326784</v>
       </c>
       <c r="H20">
-        <v>2.003077713154584</v>
+        <v>1.938293587841905</v>
       </c>
       <c r="I20">
-        <v>2.91773089509925</v>
+        <v>2.834936959902083</v>
       </c>
       <c r="J20">
-        <v>8.76180827799509</v>
+        <v>8.85429574696947</v>
       </c>
       <c r="K20">
-        <v>14.69347300844458</v>
+        <v>14.11285517861389</v>
       </c>
       <c r="L20">
-        <v>6.106215679163687</v>
+        <v>11.40427732743097</v>
       </c>
       <c r="M20">
-        <v>13.38121941901415</v>
+        <v>9.449610441213705</v>
       </c>
       <c r="N20">
-        <v>10.04431436879978</v>
+        <v>6.120867923686732</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.480090088291</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10.25525608079781</v>
       </c>
       <c r="Q20">
-        <v>13.96681139752148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.49509444639391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.17209757916203</v>
+        <v>18.09343826545623</v>
       </c>
       <c r="C21">
-        <v>8.549637817929352</v>
+        <v>8.271252571296122</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.94558518122044</v>
+        <v>12.93557791100242</v>
       </c>
       <c r="F21">
-        <v>28.38770376840103</v>
+        <v>27.47697540952769</v>
       </c>
       <c r="G21">
-        <v>20.65130249178609</v>
+        <v>20.67831265890377</v>
       </c>
       <c r="H21">
-        <v>1.746841925865142</v>
+        <v>1.700303580401748</v>
       </c>
       <c r="I21">
-        <v>2.751077769244568</v>
+        <v>2.69306249874918</v>
       </c>
       <c r="J21">
-        <v>8.694337367401184</v>
+        <v>8.346142564636059</v>
       </c>
       <c r="K21">
-        <v>14.58403840948729</v>
+        <v>13.85232118974682</v>
       </c>
       <c r="L21">
-        <v>6.212875144885918</v>
+        <v>11.1612835589075</v>
       </c>
       <c r="M21">
-        <v>14.03578701414095</v>
+        <v>9.372202911728078</v>
       </c>
       <c r="N21">
-        <v>10.54791235420812</v>
+        <v>6.262786923915289</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.12195652905522</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.80171610567982</v>
       </c>
       <c r="Q21">
-        <v>13.91398840640112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.2274440304785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.81338876884742</v>
+        <v>18.73406724985077</v>
       </c>
       <c r="C22">
-        <v>8.593512392970949</v>
+        <v>8.31674054259109</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.22496875990817</v>
+        <v>13.25764096166743</v>
       </c>
       <c r="F22">
-        <v>28.9003435746045</v>
+        <v>27.80386382804162</v>
       </c>
       <c r="G22">
-        <v>20.74589781859889</v>
+        <v>21.79440018846035</v>
       </c>
       <c r="H22">
-        <v>1.596220250681886</v>
+        <v>1.561237032302508</v>
       </c>
       <c r="I22">
-        <v>2.634979292585616</v>
+        <v>2.590235581117587</v>
       </c>
       <c r="J22">
-        <v>8.649012748810076</v>
+        <v>8.081411067072949</v>
       </c>
       <c r="K22">
-        <v>14.50873052293765</v>
+        <v>13.67113459995364</v>
       </c>
       <c r="L22">
-        <v>6.288791780207113</v>
+        <v>11.0011888505364</v>
       </c>
       <c r="M22">
-        <v>14.4481918395967</v>
+        <v>9.32062275777391</v>
       </c>
       <c r="N22">
-        <v>10.81053457778857</v>
+        <v>6.363304641330569</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.52463270638781</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>11.09262067361337</v>
       </c>
       <c r="Q22">
-        <v>13.87574893185489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.03670592072019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.4798055492641</v>
+        <v>18.39846246461205</v>
       </c>
       <c r="C23">
-        <v>8.565273940873871</v>
+        <v>8.28986727348577</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.07981014261562</v>
+        <v>13.08157039206267</v>
       </c>
       <c r="F23">
-        <v>28.6504791417756</v>
+        <v>27.67534739068686</v>
       </c>
       <c r="G23">
-        <v>20.73123554956963</v>
+        <v>21.06279048739637</v>
       </c>
       <c r="H23">
-        <v>1.675596486714953</v>
+        <v>1.633940864638466</v>
       </c>
       <c r="I23">
-        <v>2.684750608907208</v>
+        <v>2.630069588208767</v>
       </c>
       <c r="J23">
-        <v>8.678874346497189</v>
+        <v>8.249969094286323</v>
       </c>
       <c r="K23">
-        <v>14.56431932515405</v>
+        <v>13.79438668034987</v>
       </c>
       <c r="L23">
-        <v>6.246223034389254</v>
+        <v>11.10285722390035</v>
       </c>
       <c r="M23">
-        <v>14.22501085713562</v>
+        <v>9.371330783663712</v>
       </c>
       <c r="N23">
-        <v>10.66459875867602</v>
+        <v>6.304980936935924</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.30934357338655</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.92837324504786</v>
       </c>
       <c r="Q23">
-        <v>13.91061904372189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.17154207034066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.1465300557666</v>
+        <v>17.07095560068013</v>
       </c>
       <c r="C24">
-        <v>8.465674711325102</v>
+        <v>8.175470860302367</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.51033851136128</v>
+        <v>12.44134662901736</v>
       </c>
       <c r="F24">
-        <v>27.66372933796167</v>
+        <v>27.02323925252518</v>
       </c>
       <c r="G24">
-        <v>20.64681388298472</v>
+        <v>19.33458745346586</v>
       </c>
       <c r="H24">
-        <v>1.984288105281515</v>
+        <v>1.919319963224799</v>
       </c>
       <c r="I24">
-        <v>2.89866343442499</v>
+        <v>2.812371924168399</v>
       </c>
       <c r="J24">
-        <v>8.787843370648316</v>
+        <v>8.88073849902349</v>
       </c>
       <c r="K24">
-        <v>14.75841428061613</v>
+        <v>14.17064445574462</v>
       </c>
       <c r="L24">
-        <v>6.085106598877696</v>
+        <v>11.4471293510839</v>
       </c>
       <c r="M24">
-        <v>13.3541377132998</v>
+        <v>9.494904559703429</v>
       </c>
       <c r="N24">
-        <v>10.10645571078561</v>
+        <v>6.098628407185298</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.4542296429497</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>10.31884217914258</v>
       </c>
       <c r="Q24">
-        <v>14.03194729656895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.5555478697966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.57823565133225</v>
+        <v>15.53655888662022</v>
       </c>
       <c r="C25">
-        <v>8.356510124175282</v>
+        <v>7.996079116903333</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.86741152873777</v>
+        <v>11.81024956687992</v>
       </c>
       <c r="F25">
-        <v>26.59903414643638</v>
+        <v>26.06976798708093</v>
       </c>
       <c r="G25">
-        <v>20.61944783059479</v>
+        <v>19.33191762452047</v>
       </c>
       <c r="H25">
-        <v>2.332657524262694</v>
+        <v>2.249147262359736</v>
       </c>
       <c r="I25">
-        <v>3.142417240890015</v>
+        <v>3.029982067429014</v>
       </c>
       <c r="J25">
-        <v>8.916751245451779</v>
+        <v>9.033213596967835</v>
       </c>
       <c r="K25">
-        <v>14.98713418069124</v>
+        <v>14.44917622429041</v>
       </c>
       <c r="L25">
-        <v>5.903991634164236</v>
+        <v>11.74438440700462</v>
       </c>
       <c r="M25">
-        <v>12.34552371050023</v>
+        <v>9.566139049720302</v>
       </c>
       <c r="N25">
-        <v>9.472370458131627</v>
+        <v>5.894377991057007</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.43077688993641</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.665799381657784</v>
       </c>
       <c r="Q25">
-        <v>14.19066441105635</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.77726878124172</v>
       </c>
     </row>
   </sheetData>
